--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>398212.9270059461</v>
+        <v>325556.3918026246</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6037513.100416117</v>
+        <v>3842442.348868393</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12139730.25673907</v>
+        <v>10498891.99518629</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7776639.070444661</v>
+        <v>8698202.045674903</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>39.58387696184059</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T3" t="n">
-        <v>39.58387696184059</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>39.58387696184059</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>34.86547882798917</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>39.58387696184059</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>34.86547882798917</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>39.58387696184059</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>28.88091821707973</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.13217237922859</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>44.13217237922859</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>44.13217237922859</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1332,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>224.6792008748446</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>255.0853779233023</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>255.0853779233023</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>255.0853779233023</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>73.473185244872</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>48.53827491403801</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I12" t="n">
         <v>45.44580843958667</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.900780601835</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,31 +1527,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.88931475283875</v>
+        <v>138.6068238627733</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>93.54560809595191</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>73.95690544770612</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>255.0853779233023</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>255.0853779233023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2026660057090652</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>136.0669836643704</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I15" t="n">
         <v>45.44580843958667</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1773,22 +1773,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>68.05671951999101</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>88.40398287551835</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>122.3659622156615</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>315.9324224046636</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958686</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.900780601835</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>165.0140383262353</v>
+        <v>136.003034541895</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>404.7476267700687</v>
+        <v>83.59813830827486</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>27.03923320938951</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>193.7787769293047</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>263.7394182836353</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>233.5563560011791</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>90.8857388215568</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>6.980384243200308</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>104.7246199185993</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
-        <v>321.3744953079338</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2721,22 +2721,22 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>19.59299030330403</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>78.95835772422876</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>8.247856666954918</v>
+        <v>109.0865311554955</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T29" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H31" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>28.89662602752892</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>136.0215605613722</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>268.288410229735</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>210.0722851410419</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>54.53605423803495</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>52.12826197648501</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>302.0379028104053</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>257.0408223838729</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
         <v>212.651863114966</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>165.0140383262355</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>45.73305741335791</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>251.6578949313341</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H38" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>265.1659912122103</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>54.53605423803495</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>151.0482174230064</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>412.9169039459368</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>152.0572850459295</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>234.745389715586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H42" t="n">
-        <v>74.81263606344126</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>45.4458084395873</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>79.39341862721993</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>130.8862233170521</v>
       </c>
       <c r="U43" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.547702772954</v>
+        <v>99.12111229005137</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.045250128462</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>71.15155179246578</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3343964518635</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H45" t="n">
-        <v>92.83156789269626</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923705015</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S45" t="n">
-        <v>134.3646350838588</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T45" t="n">
-        <v>192.0665623188214</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>34.3152627880416</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>129.2224443473098</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>3.166710156947247</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>40.77139327069581</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>78.36807964162378</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>38.38436553875449</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>3.166710156947247</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>3.166710156947247</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>3.166710156947247</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>118.3517937444931</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T3" t="n">
-        <v>78.36807964162378</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U3" t="n">
-        <v>38.38436553875449</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V3" t="n">
-        <v>3.166710156947247</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.46354404567346</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>50.47982994280417</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>10.49611583993489</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>3.166710156947247</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>3.166710156947247</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>3.166710156947247</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.15042425981653</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>43.15042425981653</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>3.166710156947247</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>3.166710156947247</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>3.166710156947247</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>42.35474834916943</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>81.54278654139161</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>120.7308247336138</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>158.3355078473624</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.2438924791353</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>108.260178376266</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>108.260178376266</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>108.260178376266</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>108.260178376266</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>108.260178376266</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>83.13413836268582</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>43.15042425981653</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>43.15042425981653</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.166710156947247</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C6" t="n">
-        <v>3.166710156947247</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D6" t="n">
-        <v>3.166710156947247</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E6" t="n">
-        <v>3.166710156947247</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F6" t="n">
-        <v>3.166710156947247</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G6" t="n">
-        <v>3.166710156947247</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H6" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>3.166710156947247</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>42.35474834916943</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>81.54278654139161</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
-        <v>120.7308247336138</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P6" t="n">
-        <v>158.3355078473624</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>123.1178524655551</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>83.13413836268582</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>83.13413836268582</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X6" t="n">
-        <v>43.15042425981653</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y6" t="n">
-        <v>43.15042425981653</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.46354404567346</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>50.47982994280417</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>10.49611583993489</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>3.166710156947247</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>121.8591222504766</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>121.8591222504766</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>121.8591222504766</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>77.28117035226589</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>32.70321845405519</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>166.4370741486873</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>166.4370741486873</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>166.4370741486873</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>166.4370741486873</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>166.4370741486873</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>166.4370741486873</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>121.8591222504766</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>3.530573790338288</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>45.45613755060546</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>89.14698820604177</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V9" t="n">
-        <v>131.9507376187037</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W9" t="n">
-        <v>87.37278572049297</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X9" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1020.341511693209</v>
+        <v>1624.828557297788</v>
       </c>
       <c r="C11" t="n">
-        <v>793.3928239408408</v>
+        <v>1624.828557297788</v>
       </c>
       <c r="D11" t="n">
-        <v>793.3928239408408</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E11" t="n">
-        <v>535.7308260385153</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F11" t="n">
-        <v>278.0688281361897</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G11" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H11" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I11" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J11" t="n">
-        <v>41.64108022724748</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K11" t="n">
-        <v>184.0917595464848</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L11" t="n">
-        <v>323.420415387738</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M11" t="n">
-        <v>510.1198282131456</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N11" t="n">
-        <v>704.454041105128</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O11" t="n">
-        <v>874.6230664220875</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P11" t="n">
-        <v>985.357391671614</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q11" t="n">
-        <v>1020.341511693209</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R11" t="n">
-        <v>1020.341511693209</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S11" t="n">
-        <v>1020.341511693209</v>
+        <v>2560.830638349459</v>
       </c>
       <c r="T11" t="n">
-        <v>1020.341511693209</v>
+        <v>2346.03077661717</v>
       </c>
       <c r="U11" t="n">
-        <v>1020.341511693209</v>
+        <v>2346.03077661717</v>
       </c>
       <c r="V11" t="n">
-        <v>1020.341511693209</v>
+        <v>2014.967889273599</v>
       </c>
       <c r="W11" t="n">
-        <v>1020.341511693209</v>
+        <v>2014.967889273599</v>
       </c>
       <c r="X11" t="n">
-        <v>1020.341511693209</v>
+        <v>2014.967889273599</v>
       </c>
       <c r="Y11" t="n">
-        <v>1020.341511693209</v>
+        <v>1624.828557297788</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>115.340247762778</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C12" t="n">
-        <v>115.340247762778</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D12" t="n">
-        <v>115.340247762778</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E12" t="n">
-        <v>115.340247762778</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F12" t="n">
-        <v>115.340247762778</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G12" t="n">
-        <v>115.340247762778</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H12" t="n">
-        <v>66.31168724354769</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I12" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J12" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K12" t="n">
-        <v>88.01464989722122</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L12" t="n">
-        <v>225.2442479129152</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M12" t="n">
-        <v>476.8681061511035</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N12" t="n">
-        <v>729.4026302951727</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O12" t="n">
-        <v>888.9149429639333</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P12" t="n">
-        <v>997.6045704912322</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q12" t="n">
-        <v>1020.341511693209</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R12" t="n">
-        <v>1020.341511693209</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S12" t="n">
-        <v>1020.341511693209</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T12" t="n">
-        <v>1020.341511693209</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U12" t="n">
-        <v>1020.341511693209</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V12" t="n">
-        <v>785.1894034614663</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W12" t="n">
-        <v>530.9520467332648</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X12" t="n">
-        <v>323.1005465277319</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y12" t="n">
-        <v>115.340247762778</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>974.9987695186245</v>
+        <v>368.5270499654301</v>
       </c>
       <c r="C13" t="n">
-        <v>806.0625865907176</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="D13" t="n">
-        <v>655.9459471783819</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="E13" t="n">
-        <v>508.0328535959887</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F13" t="n">
-        <v>361.1429060980784</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G13" t="n">
-        <v>192.5360610934617</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H13" t="n">
-        <v>38.2814179932268</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I13" t="n">
-        <v>38.2814179932268</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J13" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K13" t="n">
-        <v>121.454759829474</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L13" t="n">
-        <v>306.2877547302924</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M13" t="n">
-        <v>511.5573554495303</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N13" t="n">
-        <v>717.3807202856347</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O13" t="n">
-        <v>891.4756156742335</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P13" t="n">
-        <v>1016.923192272849</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q13" t="n">
-        <v>1020.341511693209</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R13" t="n">
-        <v>1020.341511693209</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S13" t="n">
-        <v>1020.341511693209</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T13" t="n">
-        <v>1020.341511693209</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U13" t="n">
-        <v>1020.341511693209</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.341511693209</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W13" t="n">
-        <v>1020.341511693209</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="X13" t="n">
-        <v>1020.341511693209</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="Y13" t="n">
-        <v>1020.341511693209</v>
+        <v>508.5339427561102</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.40683023386418</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="C14" t="n">
-        <v>20.40683023386418</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="D14" t="n">
-        <v>20.40683023386418</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="E14" t="n">
-        <v>20.40683023386418</v>
+        <v>1198.997721320284</v>
       </c>
       <c r="F14" t="n">
-        <v>20.40683023386418</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G14" t="n">
-        <v>20.40683023386418</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H14" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I14" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J14" t="n">
-        <v>41.64108022724748</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K14" t="n">
-        <v>124.2042348018398</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L14" t="n">
-        <v>323.420415387738</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M14" t="n">
-        <v>510.1198282131456</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N14" t="n">
-        <v>704.454041105128</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O14" t="n">
-        <v>874.6230664220875</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P14" t="n">
-        <v>985.357391671614</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q14" t="n">
-        <v>1020.341511693209</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R14" t="n">
-        <v>1020.341511693209</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S14" t="n">
-        <v>864.1264741900372</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T14" t="n">
-        <v>789.4225292933644</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U14" t="n">
-        <v>535.7308260385153</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V14" t="n">
-        <v>278.0688281361897</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W14" t="n">
-        <v>278.0688281361897</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="X14" t="n">
-        <v>278.0688281361897</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.40683023386418</v>
+        <v>1679.276487146762</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>350.4923559945207</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C15" t="n">
-        <v>350.4923559945207</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D15" t="n">
-        <v>350.4923559945207</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E15" t="n">
-        <v>350.2876428574408</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F15" t="n">
-        <v>203.7530848843257</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G15" t="n">
-        <v>66.31168724354769</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H15" t="n">
-        <v>66.31168724354769</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I15" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J15" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K15" t="n">
-        <v>88.01464989722122</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L15" t="n">
-        <v>225.2442479129152</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M15" t="n">
-        <v>404.74158426752</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N15" t="n">
-        <v>603.3983259201847</v>
+        <v>1725.692954831311</v>
       </c>
       <c r="O15" t="n">
-        <v>762.9106385889453</v>
+        <v>2275.128963584034</v>
       </c>
       <c r="P15" t="n">
-        <v>997.6045704912322</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q15" t="n">
-        <v>1020.341511693209</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R15" t="n">
-        <v>1020.341511693209</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S15" t="n">
-        <v>1020.341511693209</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T15" t="n">
-        <v>1020.341511693209</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U15" t="n">
-        <v>1020.341511693209</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V15" t="n">
-        <v>1020.341511693209</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W15" t="n">
-        <v>766.1041549650074</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X15" t="n">
-        <v>558.2526547594746</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y15" t="n">
-        <v>350.4923559945207</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1020.341511693209</v>
+        <v>763.218430961997</v>
       </c>
       <c r="C16" t="n">
-        <v>851.4053287653022</v>
+        <v>594.2822480340901</v>
       </c>
       <c r="D16" t="n">
-        <v>701.2886893529665</v>
+        <v>444.1656086217544</v>
       </c>
       <c r="E16" t="n">
-        <v>632.5445282216624</v>
+        <v>296.2525150393612</v>
       </c>
       <c r="F16" t="n">
-        <v>485.654580723752</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="G16" t="n">
-        <v>317.0477357191354</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="H16" t="n">
-        <v>162.7930926189005</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I16" t="n">
-        <v>38.2814179932268</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J16" t="n">
-        <v>20.40683023386418</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K16" t="n">
-        <v>121.454759829474</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L16" t="n">
-        <v>306.2877547302924</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M16" t="n">
-        <v>511.5573554495303</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N16" t="n">
-        <v>717.3807202856347</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O16" t="n">
-        <v>891.4756156742335</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P16" t="n">
-        <v>1016.923192272849</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q16" t="n">
-        <v>1020.341511693209</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R16" t="n">
-        <v>1020.341511693209</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S16" t="n">
-        <v>1020.341511693209</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T16" t="n">
-        <v>1020.341511693209</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U16" t="n">
-        <v>1020.341511693209</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.341511693209</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W16" t="n">
-        <v>1020.341511693209</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X16" t="n">
-        <v>1020.341511693209</v>
+        <v>763.218430961997</v>
       </c>
       <c r="Y16" t="n">
-        <v>1020.341511693209</v>
+        <v>763.218430961997</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.3029015756346</v>
+        <v>1165.717387685019</v>
       </c>
       <c r="C17" t="n">
-        <v>52.70091953961285</v>
+        <v>796.7548707446076</v>
       </c>
       <c r="D17" t="n">
-        <v>52.70091953961285</v>
+        <v>438.4891721378571</v>
       </c>
       <c r="E17" t="n">
         <v>52.70091953961285</v>
@@ -5518,19 +5518,19 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K17" t="n">
-        <v>156.4983241075885</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L17" t="n">
-        <v>683.1408478992852</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M17" t="n">
-        <v>1314.858658882597</v>
+        <v>1216.914953624649</v>
       </c>
       <c r="N17" t="n">
-        <v>1942.166326942443</v>
+        <v>1844.222621684495</v>
       </c>
       <c r="O17" t="n">
-        <v>2489.327531709521</v>
+        <v>2391.383826451573</v>
       </c>
       <c r="P17" t="n">
         <v>2600.061856959047</v>
@@ -5542,25 +5542,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S17" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T17" t="n">
-        <v>2264.031077745182</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U17" t="n">
-        <v>2010.339374490333</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V17" t="n">
-        <v>1679.276487146762</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="W17" t="n">
-        <v>1326.507831876648</v>
+        <v>2315.922317986033</v>
       </c>
       <c r="X17" t="n">
-        <v>953.0420736155681</v>
+        <v>1942.456559724953</v>
       </c>
       <c r="Y17" t="n">
-        <v>562.9027416397564</v>
+        <v>1552.317227749141</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C18" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D18" t="n">
-        <v>642.7351650238404</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E18" t="n">
-        <v>483.4977100183849</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F18" t="n">
-        <v>336.9631520452699</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G18" t="n">
-        <v>199.5217544044918</v>
+        <v>199.521754404492</v>
       </c>
       <c r="H18" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929655</v>
       </c>
       <c r="I18" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J18" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K18" t="n">
-        <v>238.9679910598655</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L18" t="n">
-        <v>743.329530925984</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M18" t="n">
-        <v>1383.874880393089</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N18" t="n">
-        <v>2028.828954629068</v>
+        <v>1725.692954831311</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.341267297829</v>
+        <v>2275.128963584034</v>
       </c>
       <c r="P18" t="n">
         <v>2612.309035778665</v>
@@ -5633,10 +5633,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W18" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X18" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y18" t="n">
         <v>1134.337940986287</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>219.3817663337899</v>
+        <v>344.3323652074184</v>
       </c>
       <c r="C19" t="n">
-        <v>52.70091953961285</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="D19" t="n">
-        <v>52.70091953961285</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="E19" t="n">
-        <v>52.70091953961285</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="F19" t="n">
-        <v>52.70091953961285</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="G19" t="n">
-        <v>52.70091953961285</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="H19" t="n">
         <v>52.70091953961285</v>
@@ -5703,22 +5703,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T19" t="n">
-        <v>1052.635600998958</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U19" t="n">
-        <v>763.4834245766374</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V19" t="n">
-        <v>508.7989363707505</v>
+        <v>572.3219161054358</v>
       </c>
       <c r="W19" t="n">
-        <v>219.3817663337899</v>
+        <v>572.3219161054358</v>
       </c>
       <c r="X19" t="n">
-        <v>219.3817663337899</v>
+        <v>344.3323652074184</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.3817663337899</v>
+        <v>344.3323652074184</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1643.50694320842</v>
+        <v>933.9176408752171</v>
       </c>
       <c r="C20" t="n">
-        <v>1643.50694320842</v>
+        <v>933.9176408752171</v>
       </c>
       <c r="D20" t="n">
-        <v>1285.24124460167</v>
+        <v>933.9176408752171</v>
       </c>
       <c r="E20" t="n">
-        <v>899.4529920034256</v>
+        <v>548.1293882769728</v>
       </c>
       <c r="F20" t="n">
-        <v>899.4529920034256</v>
+        <v>137.1434834873652</v>
       </c>
       <c r="G20" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H20" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I20" t="n">
         <v>52.70091953961285</v>
@@ -5758,13 +5758,13 @@
         <v>156.4983241075885</v>
       </c>
       <c r="L20" t="n">
-        <v>683.1408478992852</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M20" t="n">
-        <v>1314.858658882597</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N20" t="n">
-        <v>1942.166326942443</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O20" t="n">
         <v>2489.327531709521</v>
@@ -5782,22 +5782,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T20" t="n">
-        <v>2420.246115248354</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U20" t="n">
-        <v>2420.246115248354</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V20" t="n">
-        <v>2420.246115248354</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="W20" t="n">
-        <v>2420.246115248354</v>
+        <v>1697.522731112109</v>
       </c>
       <c r="X20" t="n">
-        <v>2420.246115248354</v>
+        <v>1324.056972851029</v>
       </c>
       <c r="Y20" t="n">
-        <v>2030.106783272542</v>
+        <v>933.9176408752171</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C21" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D21" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E21" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F21" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G21" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H21" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I21" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J21" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K21" t="n">
-        <v>382.1293238454225</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L21" t="n">
-        <v>886.4908637115411</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M21" t="n">
-        <v>1065.988200066146</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N21" t="n">
-        <v>1718.162079368855</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O21" t="n">
-        <v>2267.598088121578</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P21" t="n">
         <v>2612.309035778665</v>
       </c>
       <c r="Q21" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R21" t="n">
         <v>2613.934077382829</v>
@@ -5864,19 +5864,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U21" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V21" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W21" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X21" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y21" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.510068819301</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C22" t="n">
-        <v>395.510068819301</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D22" t="n">
-        <v>395.510068819301</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E22" t="n">
-        <v>395.510068819301</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F22" t="n">
-        <v>248.6201213213906</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G22" t="n">
-        <v>80.01327631677398</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H22" t="n">
-        <v>80.01327631677398</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I22" t="n">
         <v>52.70091953961285</v>
@@ -5940,22 +5940,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T22" t="n">
-        <v>1052.635600998958</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U22" t="n">
-        <v>1052.635600998958</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V22" t="n">
-        <v>797.9511127930708</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="W22" t="n">
-        <v>797.9511127930708</v>
+        <v>248.4370578520418</v>
       </c>
       <c r="X22" t="n">
-        <v>797.9511127930708</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y22" t="n">
-        <v>577.1585336495407</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1484.841046679629</v>
+        <v>1871.440886743751</v>
       </c>
       <c r="C23" t="n">
-        <v>1115.878529739218</v>
+        <v>1502.478369803339</v>
       </c>
       <c r="D23" t="n">
-        <v>1115.878529739218</v>
+        <v>1502.478369803339</v>
       </c>
       <c r="E23" t="n">
-        <v>730.0902771409733</v>
+        <v>1116.690117205095</v>
       </c>
       <c r="F23" t="n">
-        <v>319.1043723513657</v>
+        <v>705.7042124154875</v>
       </c>
       <c r="G23" t="n">
-        <v>52.70091953961285</v>
+        <v>288.616430651915</v>
       </c>
       <c r="H23" t="n">
         <v>52.70091953961285</v>
@@ -5992,16 +5992,16 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K23" t="n">
-        <v>156.4983241075885</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L23" t="n">
-        <v>683.1408478992852</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M23" t="n">
-        <v>1314.858658882597</v>
+        <v>1661.933351782553</v>
       </c>
       <c r="N23" t="n">
-        <v>1942.166326942443</v>
+        <v>2289.241019842399</v>
       </c>
       <c r="O23" t="n">
         <v>2489.327531709521</v>
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C24" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D24" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E24" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F24" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G24" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H24" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I24" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J24" t="n">
         <v>52.70091953961285</v>
@@ -6074,22 +6074,22 @@
         <v>120.3087392029699</v>
       </c>
       <c r="L24" t="n">
-        <v>346.1860297752918</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M24" t="n">
-        <v>986.7313792423964</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N24" t="n">
-        <v>1638.905258545105</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.341267297828</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P24" t="n">
         <v>2612.309035778665</v>
       </c>
       <c r="Q24" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R24" t="n">
         <v>2613.934077382829</v>
@@ -6101,7 +6101,7 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U24" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V24" t="n">
         <v>1804.187096684975</v>
@@ -6113,7 +6113,7 @@
         <v>1342.09823975124</v>
       </c>
       <c r="Y24" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.70091953961285</v>
+        <v>292.4177897094371</v>
       </c>
       <c r="C25" t="n">
-        <v>52.70091953961285</v>
+        <v>292.4177897094371</v>
       </c>
       <c r="D25" t="n">
-        <v>52.70091953961285</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E25" t="n">
         <v>52.70091953961285</v>
@@ -6180,19 +6180,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U25" t="n">
-        <v>1045.584707824008</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V25" t="n">
-        <v>790.9002196181209</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="W25" t="n">
-        <v>501.4830495811603</v>
+        <v>474.0662545396768</v>
       </c>
       <c r="X25" t="n">
-        <v>273.4934986831429</v>
+        <v>474.0662545396768</v>
       </c>
       <c r="Y25" t="n">
-        <v>52.70091953961285</v>
+        <v>474.0662545396768</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>807.4516890782688</v>
+        <v>902.5373151068291</v>
       </c>
       <c r="C26" t="n">
-        <v>438.4891721378571</v>
+        <v>902.5373151068291</v>
       </c>
       <c r="D26" t="n">
-        <v>438.4891721378571</v>
+        <v>544.2716165000786</v>
       </c>
       <c r="E26" t="n">
-        <v>52.70091953961285</v>
+        <v>158.4833639018344</v>
       </c>
       <c r="F26" t="n">
-        <v>52.70091953961285</v>
+        <v>158.4833639018344</v>
       </c>
       <c r="G26" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H26" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I26" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J26" t="n">
         <v>73.93516953299616</v>
@@ -6232,19 +6232,19 @@
         <v>156.4983241075885</v>
       </c>
       <c r="L26" t="n">
-        <v>683.1408478992852</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M26" t="n">
-        <v>1314.858658882597</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N26" t="n">
-        <v>1942.166326942443</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O26" t="n">
         <v>2489.327531709521</v>
       </c>
       <c r="P26" t="n">
-        <v>2600.061856959047</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q26" t="n">
         <v>2635.045976980643</v>
@@ -6253,25 +6253,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S26" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T26" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U26" t="n">
-        <v>2635.045976980643</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V26" t="n">
-        <v>2310.425274649396</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="W26" t="n">
-        <v>1957.656619379282</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="X26" t="n">
-        <v>1584.190861118202</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="Y26" t="n">
-        <v>1194.051529142391</v>
+        <v>1289.137155170951</v>
       </c>
     </row>
     <row r="27">
@@ -6296,40 +6296,40 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G27" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H27" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I27" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J27" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K27" t="n">
-        <v>120.3087392029699</v>
+        <v>295.3416275592184</v>
       </c>
       <c r="L27" t="n">
-        <v>624.6702790690885</v>
+        <v>799.7031674253369</v>
       </c>
       <c r="M27" t="n">
-        <v>1265.215628536193</v>
+        <v>1440.248516892442</v>
       </c>
       <c r="N27" t="n">
-        <v>1917.389507838902</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O27" t="n">
-        <v>2466.825516591625</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P27" t="n">
-        <v>2612.309035778665</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q27" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R27" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S27" t="n">
         <v>2464.467288245464</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>150.3314241921358</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="C28" t="n">
-        <v>150.3314241921358</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="D28" t="n">
-        <v>150.3314241921358</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="E28" t="n">
-        <v>150.3314241921358</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F28" t="n">
-        <v>150.3314241921358</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G28" t="n">
-        <v>150.3314241921358</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H28" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I28" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K28" t="n">
         <v>153.7488491352227</v>
@@ -6408,28 +6408,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R28" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S28" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T28" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U28" t="n">
-        <v>633.00546329604</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V28" t="n">
-        <v>378.3209750901532</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W28" t="n">
-        <v>378.3209750901532</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="X28" t="n">
-        <v>150.3314241921358</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.3314241921358</v>
+        <v>219.3817663337899</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>429.9946048304841</v>
+        <v>1328.626009176458</v>
       </c>
       <c r="C29" t="n">
-        <v>61.03208789007238</v>
+        <v>959.6634922360461</v>
       </c>
       <c r="D29" t="n">
-        <v>61.03208789007238</v>
+        <v>959.6634922360461</v>
       </c>
       <c r="E29" t="n">
-        <v>61.03208789007238</v>
+        <v>573.8752396378018</v>
       </c>
       <c r="F29" t="n">
-        <v>61.03208789007238</v>
+        <v>162.8893348481942</v>
       </c>
       <c r="G29" t="n">
-        <v>61.03208789007238</v>
+        <v>162.8893348481942</v>
       </c>
       <c r="H29" t="n">
-        <v>61.03208789007238</v>
+        <v>162.8893348481942</v>
       </c>
       <c r="I29" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J29" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K29" t="n">
-        <v>507.3197691032044</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L29" t="n">
-        <v>1060.133027349404</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M29" t="n">
-        <v>1691.850838332715</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N29" t="n">
-        <v>2319.158506392562</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O29" t="n">
-        <v>2489.327531709521</v>
+        <v>2138.506086713905</v>
       </c>
       <c r="P29" t="n">
-        <v>2600.061856959048</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q29" t="n">
         <v>2635.045976980643</v>
@@ -6493,22 +6493,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T29" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U29" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V29" t="n">
-        <v>1932.968190401612</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W29" t="n">
-        <v>1580.199535131497</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="X29" t="n">
-        <v>1206.733776870418</v>
+        <v>2105.365181216391</v>
       </c>
       <c r="Y29" t="n">
-        <v>816.5944448946059</v>
+        <v>1715.225849240579</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J30" t="n">
-        <v>52.70091953961286</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K30" t="n">
-        <v>120.3087392029699</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L30" t="n">
-        <v>346.1860297752926</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M30" t="n">
-        <v>986.7313792423972</v>
+        <v>1232.272002033951</v>
       </c>
       <c r="N30" t="n">
-        <v>1638.905258545106</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P30" t="n">
-        <v>2612.309035778666</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q30" t="n">
         <v>2635.045976980643</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1987.161294765068</v>
+        <v>687.2505343823825</v>
       </c>
       <c r="C31" t="n">
-        <v>1987.161294765068</v>
+        <v>518.3143514544756</v>
       </c>
       <c r="D31" t="n">
-        <v>1987.161294765068</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="E31" t="n">
-        <v>1987.161294765068</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="F31" t="n">
-        <v>1987.161294765068</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G31" t="n">
-        <v>1818.554449760451</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H31" t="n">
-        <v>1664.299806660216</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I31" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J31" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K31" t="n">
-        <v>1736.159225116908</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L31" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M31" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N31" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O31" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P31" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q31" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R31" t="n">
-        <v>2504.568015700046</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S31" t="n">
-        <v>2504.568015700046</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T31" t="n">
-        <v>2504.568015700046</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U31" t="n">
-        <v>2504.568015700046</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V31" t="n">
-        <v>2504.568015700046</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W31" t="n">
-        <v>2215.150845663085</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X31" t="n">
-        <v>1987.161294765068</v>
+        <v>824.6460501009403</v>
       </c>
       <c r="Y31" t="n">
-        <v>1987.161294765068</v>
+        <v>687.2505343823825</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1484.84104667963</v>
+        <v>1582.805169448592</v>
       </c>
       <c r="C32" t="n">
         <v>1213.84265250818</v>
@@ -6691,34 +6691,34 @@
         <v>469.7887013031854</v>
       </c>
       <c r="G32" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H32" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I32" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J32" t="n">
         <v>73.93516953299616</v>
       </c>
       <c r="K32" t="n">
-        <v>156.4983241075885</v>
+        <v>225.231470968264</v>
       </c>
       <c r="L32" t="n">
-        <v>683.1408478992856</v>
+        <v>364.5601268095172</v>
       </c>
       <c r="M32" t="n">
-        <v>1314.858658882597</v>
+        <v>996.277937792829</v>
       </c>
       <c r="N32" t="n">
-        <v>1942.166326942444</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O32" t="n">
-        <v>2489.327531709521</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P32" t="n">
-        <v>2600.061856959048</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q32" t="n">
         <v>2635.045976980643</v>
@@ -6727,25 +6727,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S32" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T32" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U32" t="n">
-        <v>2635.045976980643</v>
+        <v>2266.636712062277</v>
       </c>
       <c r="V32" t="n">
-        <v>2635.045976980643</v>
+        <v>1935.573824718706</v>
       </c>
       <c r="W32" t="n">
-        <v>2635.045976980643</v>
+        <v>1582.805169448592</v>
       </c>
       <c r="X32" t="n">
-        <v>2261.580218719563</v>
+        <v>1582.805169448592</v>
       </c>
       <c r="Y32" t="n">
-        <v>1871.440886743751</v>
+        <v>1582.805169448592</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G33" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H33" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I33" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J33" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K33" t="n">
         <v>382.1293238454227</v>
@@ -6791,19 +6791,19 @@
         <v>1527.036213178646</v>
       </c>
       <c r="N33" t="n">
-        <v>1725.692954831311</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O33" t="n">
-        <v>2275.128963584034</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P33" t="n">
-        <v>2612.309035778666</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q33" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R33" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S33" t="n">
         <v>2464.467288245464</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>870.9871361687179</v>
+        <v>369.5501960499129</v>
       </c>
       <c r="C34" t="n">
-        <v>702.0509532408111</v>
+        <v>200.614013122006</v>
       </c>
       <c r="D34" t="n">
-        <v>702.0509532408111</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E34" t="n">
-        <v>646.9640297680485</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F34" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G34" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H34" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K34" t="n">
         <v>153.7488491352227</v>
@@ -6894,16 +6894,16 @@
         <v>1052.635600998958</v>
       </c>
       <c r="V34" t="n">
-        <v>1052.635600998958</v>
+        <v>999.9807909217001</v>
       </c>
       <c r="W34" t="n">
-        <v>1052.635600998958</v>
+        <v>999.9807909217001</v>
       </c>
       <c r="X34" t="n">
-        <v>1052.635600998958</v>
+        <v>771.9912400236827</v>
       </c>
       <c r="Y34" t="n">
-        <v>1052.635600998958</v>
+        <v>551.1986608801526</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1016.349481692492</v>
+        <v>941.6454935358602</v>
       </c>
       <c r="C35" t="n">
-        <v>1016.349481692492</v>
+        <v>941.6454935358602</v>
       </c>
       <c r="D35" t="n">
-        <v>1016.349481692492</v>
+        <v>583.3797949291096</v>
       </c>
       <c r="E35" t="n">
-        <v>630.5612290942477</v>
+        <v>583.3797949291096</v>
       </c>
       <c r="F35" t="n">
-        <v>630.5612290942477</v>
+        <v>172.393890139502</v>
       </c>
       <c r="G35" t="n">
-        <v>370.9240347671034</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H35" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I35" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J35" t="n">
         <v>73.93516953299616</v>
@@ -6943,19 +6943,19 @@
         <v>156.4983241075885</v>
       </c>
       <c r="L35" t="n">
-        <v>683.1408478992856</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M35" t="n">
-        <v>1314.858658882597</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N35" t="n">
-        <v>1942.166326942444</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O35" t="n">
         <v>2489.327531709521</v>
       </c>
       <c r="P35" t="n">
-        <v>2600.061856959048</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q35" t="n">
         <v>2635.045976980643</v>
@@ -6964,25 +6964,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S35" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T35" t="n">
-        <v>2420.246115248354</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U35" t="n">
-        <v>2166.554411993505</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V35" t="n">
-        <v>2166.554411993505</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="W35" t="n">
-        <v>2166.554411993505</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="X35" t="n">
-        <v>1793.088653732425</v>
+        <v>1636.873616229253</v>
       </c>
       <c r="Y35" t="n">
-        <v>1402.949321756614</v>
+        <v>1246.734284253441</v>
       </c>
     </row>
     <row r="36">
@@ -7007,25 +7007,25 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G36" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H36" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I36" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J36" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K36" t="n">
-        <v>120.3087392029699</v>
+        <v>295.3416275592179</v>
       </c>
       <c r="L36" t="n">
-        <v>624.6702790690885</v>
+        <v>799.7031674253365</v>
       </c>
       <c r="M36" t="n">
-        <v>1265.215628536193</v>
+        <v>1440.248516892441</v>
       </c>
       <c r="N36" t="n">
         <v>1638.905258545106</v>
@@ -7034,13 +7034,13 @@
         <v>2188.341267297829</v>
       </c>
       <c r="P36" t="n">
-        <v>2612.309035778666</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q36" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R36" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S36" t="n">
         <v>2464.467288245464</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J37" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K37" t="n">
-        <v>1736.159225116908</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L37" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M37" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N37" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O37" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P37" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q37" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R37" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S37" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T37" t="n">
-        <v>2468.365130186466</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U37" t="n">
-        <v>2179.212953764145</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V37" t="n">
-        <v>1924.528465558259</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.111295521298</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="X37" t="n">
-        <v>1635.111295521298</v>
+        <v>280.5443918580929</v>
       </c>
       <c r="Y37" t="n">
-        <v>1635.111295521298</v>
+        <v>234.3493843698525</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1098.152250314266</v>
+        <v>1503.937016903239</v>
       </c>
       <c r="C38" t="n">
-        <v>729.1897333738539</v>
+        <v>1134.974499962827</v>
       </c>
       <c r="D38" t="n">
-        <v>370.9240347671034</v>
+        <v>1134.974499962827</v>
       </c>
       <c r="E38" t="n">
-        <v>370.9240347671034</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F38" t="n">
-        <v>370.9240347671034</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G38" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H38" t="n">
         <v>52.70091953961285</v>
@@ -7177,19 +7177,19 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K38" t="n">
-        <v>477.4022825530416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L38" t="n">
-        <v>1030.215540799241</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M38" t="n">
-        <v>1216.914953624649</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N38" t="n">
-        <v>1844.222621684495</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O38" t="n">
-        <v>2391.383826451573</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P38" t="n">
         <v>2600.061856959047</v>
@@ -7207,19 +7207,19 @@
         <v>2478.830939477471</v>
       </c>
       <c r="U38" t="n">
-        <v>2478.830939477471</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V38" t="n">
-        <v>2478.830939477471</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W38" t="n">
-        <v>2126.062284207356</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="X38" t="n">
-        <v>1752.596525946276</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="Y38" t="n">
-        <v>1484.752090378387</v>
+        <v>1503.937016903239</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C39" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D39" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E39" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F39" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G39" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H39" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I39" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J39" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K39" t="n">
-        <v>295.3416275592174</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L39" t="n">
-        <v>799.703167425336</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M39" t="n">
-        <v>1440.248516892441</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N39" t="n">
-        <v>1638.905258545105</v>
+        <v>1725.692954831311</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.341267297828</v>
+        <v>2275.128963584034</v>
       </c>
       <c r="P39" t="n">
         <v>2612.309035778665</v>
       </c>
       <c r="Q39" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R39" t="n">
         <v>2613.934077382829</v>
@@ -7286,19 +7286,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U39" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V39" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W39" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X39" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y39" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>870.9871361687179</v>
+        <v>497.620600032252</v>
       </c>
       <c r="C40" t="n">
-        <v>702.0509532408111</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D40" t="n">
-        <v>702.0509532408111</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E40" t="n">
-        <v>646.9640297680485</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F40" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G40" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H40" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I40" t="n">
         <v>52.70091953961285</v>
@@ -7374,10 +7374,10 @@
         <v>1052.635600998958</v>
       </c>
       <c r="X40" t="n">
-        <v>1052.635600998958</v>
+        <v>900.0616440060219</v>
       </c>
       <c r="Y40" t="n">
-        <v>1052.635600998958</v>
+        <v>679.2690648624917</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1212.38851953657</v>
+        <v>1755.218346231338</v>
       </c>
       <c r="C41" t="n">
-        <v>1212.38851953657</v>
+        <v>1386.255829290926</v>
       </c>
       <c r="D41" t="n">
-        <v>854.1228209298199</v>
+        <v>1386.255829290926</v>
       </c>
       <c r="E41" t="n">
-        <v>468.3345683315756</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="F41" t="n">
-        <v>468.3345683315756</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G41" t="n">
-        <v>51.2467865680031</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H41" t="n">
-        <v>51.2467865680031</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I41" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J41" t="n">
-        <v>72.4810365613864</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K41" t="n">
-        <v>155.0441911359788</v>
+        <v>460.0580283728629</v>
       </c>
       <c r="L41" t="n">
-        <v>707.8574493821779</v>
+        <v>599.386684214116</v>
       </c>
       <c r="M41" t="n">
-        <v>1242.152010302109</v>
+        <v>786.0860970395237</v>
       </c>
       <c r="N41" t="n">
-        <v>1869.459678361956</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O41" t="n">
-        <v>2416.620883129033</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P41" t="n">
-        <v>2527.35520837856</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q41" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R41" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S41" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T41" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U41" t="n">
-        <v>2562.339328400155</v>
+        <v>2481.452759762532</v>
       </c>
       <c r="V41" t="n">
-        <v>2562.339328400155</v>
+        <v>2481.452759762532</v>
       </c>
       <c r="W41" t="n">
-        <v>2209.570673130041</v>
+        <v>2128.684104492418</v>
       </c>
       <c r="X41" t="n">
-        <v>1836.104914868961</v>
+        <v>1755.218346231338</v>
       </c>
       <c r="Y41" t="n">
-        <v>1598.988359600692</v>
+        <v>1755.218346231338</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>893.4159553857312</v>
+        <v>966.1226039662192</v>
       </c>
       <c r="C42" t="n">
-        <v>718.9629261046042</v>
+        <v>791.6695746850922</v>
       </c>
       <c r="D42" t="n">
-        <v>570.0285164433529</v>
+        <v>642.735165023841</v>
       </c>
       <c r="E42" t="n">
-        <v>410.7910614378974</v>
+        <v>483.4977100183855</v>
       </c>
       <c r="F42" t="n">
-        <v>264.2565034647824</v>
+        <v>336.9631520452705</v>
       </c>
       <c r="G42" t="n">
-        <v>126.8151058240044</v>
+        <v>199.5217544044924</v>
       </c>
       <c r="H42" t="n">
-        <v>51.2467865680031</v>
+        <v>98.605776549297</v>
       </c>
       <c r="I42" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J42" t="n">
-        <v>51.2467865680031</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K42" t="n">
-        <v>380.675190873813</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L42" t="n">
-        <v>517.904788889507</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M42" t="n">
-        <v>932.0196261855799</v>
+        <v>1232.272002033951</v>
       </c>
       <c r="N42" t="n">
-        <v>1566.198609964618</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O42" t="n">
-        <v>2115.634618717341</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P42" t="n">
-        <v>2539.602387198178</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q42" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R42" t="n">
-        <v>2541.227428802342</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S42" t="n">
-        <v>2391.760639664977</v>
+        <v>2464.467288245465</v>
       </c>
       <c r="T42" t="n">
-        <v>2194.771343825064</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U42" t="n">
-        <v>1966.63255633623</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V42" t="n">
-        <v>1731.480448104488</v>
+        <v>1804.187096684976</v>
       </c>
       <c r="W42" t="n">
-        <v>1477.243091376286</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X42" t="n">
-        <v>1269.391591170753</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y42" t="n">
-        <v>1061.631292405799</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>199.1598801503962</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C43" t="n">
-        <v>199.1598801503962</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D43" t="n">
-        <v>199.1598801503962</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E43" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F43" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G43" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H43" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I43" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J43" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K43" t="n">
-        <v>152.2947161636129</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L43" t="n">
-        <v>337.1277110644313</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M43" t="n">
-        <v>542.3973117836692</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N43" t="n">
-        <v>748.2206766197735</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O43" t="n">
-        <v>922.3155720083723</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P43" t="n">
-        <v>1047.763148606988</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q43" t="n">
-        <v>1051.181468027348</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R43" t="n">
-        <v>970.9860956766206</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S43" t="n">
-        <v>970.9860956766206</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T43" t="n">
-        <v>970.9860956766206</v>
+        <v>920.427294618097</v>
       </c>
       <c r="U43" t="n">
-        <v>681.8339192543004</v>
+        <v>631.2751181957768</v>
       </c>
       <c r="V43" t="n">
-        <v>427.1494310484136</v>
+        <v>631.2751181957768</v>
       </c>
       <c r="W43" t="n">
-        <v>427.1494310484136</v>
+        <v>631.2751181957768</v>
       </c>
       <c r="X43" t="n">
-        <v>199.1598801503962</v>
+        <v>403.2855672977595</v>
       </c>
       <c r="Y43" t="n">
-        <v>199.1598801503962</v>
+        <v>403.2855672977595</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>877.9374416333219</v>
+        <v>1676.825628121143</v>
       </c>
       <c r="C44" t="n">
-        <v>877.9374416333219</v>
+        <v>1307.863111180732</v>
       </c>
       <c r="D44" t="n">
-        <v>877.9374416333219</v>
+        <v>949.5974125739813</v>
       </c>
       <c r="E44" t="n">
-        <v>877.9374416333219</v>
+        <v>563.809159975737</v>
       </c>
       <c r="F44" t="n">
-        <v>466.9515368437143</v>
+        <v>152.8232551861294</v>
       </c>
       <c r="G44" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H44" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I44" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362822</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816079</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L44" t="n">
-        <v>795.755353087291</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.470313923561</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N44" t="n">
-        <v>1656.671415230816</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O44" t="n">
-        <v>2055.22848474084</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P44" t="n">
-        <v>2360.886721764997</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.25058172385</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R44" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T44" t="n">
-        <v>2353.59368700598</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U44" t="n">
-        <v>2100.012626270159</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V44" t="n">
-        <v>2028.142371934335</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="W44" t="n">
-        <v>2028.142371934335</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="X44" t="n">
-        <v>1654.676613673255</v>
+        <v>1676.825628121143</v>
       </c>
       <c r="Y44" t="n">
-        <v>1264.537281697444</v>
+        <v>1676.825628121143</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966389</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155119</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542605</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E45" t="n">
-        <v>448.679247148805</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F45" t="n">
-        <v>302.14468917569</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182524</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057901</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I45" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J45" t="n">
-        <v>113.5972052500113</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K45" t="n">
-        <v>298.3188265310613</v>
+        <v>295.3416275592184</v>
       </c>
       <c r="L45" t="n">
-        <v>801.9449557744472</v>
+        <v>799.7031674253369</v>
       </c>
       <c r="M45" t="n">
-        <v>1165.206974733667</v>
+        <v>1440.248516892442</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.492103330613</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O45" t="n">
-        <v>1884.562538506774</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P45" t="n">
-        <v>2447.023413292609</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q45" t="n">
-        <v>2562.339328400155</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R45" t="n">
-        <v>2562.339328400155</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.617474780096</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T45" t="n">
-        <v>2232.610846175226</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.520742047138</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.368633815395</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.131277087194</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.279776881661</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.519478116707</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>400.7850803617173</v>
+        <v>519.6668354622486</v>
       </c>
       <c r="C46" t="n">
-        <v>400.7850803617173</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="D46" t="n">
-        <v>400.7850803617173</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E46" t="n">
-        <v>400.7850803617173</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F46" t="n">
-        <v>253.8951328638069</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G46" t="n">
-        <v>85.90866817208553</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H46" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I46" t="n">
-        <v>51.2467865680031</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J46" t="n">
-        <v>76.71595955312196</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K46" t="n">
-        <v>248.4064713020475</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L46" t="n">
-        <v>523.6376499693233</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M46" t="n">
-        <v>824.2194607096585</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N46" t="n">
-        <v>1123.088724245823</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.126566999034</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P46" t="n">
-        <v>1582.113182171023</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q46" t="n">
-        <v>1636.446120074497</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R46" t="n">
-        <v>1636.446120074497</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S46" t="n">
-        <v>1636.446120074497</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T46" t="n">
-        <v>1636.446120074497</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U46" t="n">
-        <v>1347.327782578335</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V46" t="n">
-        <v>1092.643294372448</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W46" t="n">
-        <v>803.2261243354872</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X46" t="n">
-        <v>803.2261243354872</v>
+        <v>922.1078794360185</v>
       </c>
       <c r="Y46" t="n">
-        <v>582.433545191957</v>
+        <v>701.3153002924884</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8148,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>268.0827398194126</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,22 +8300,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>170.9255890451739</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>171.9589358120561</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8385,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>184.4830882253185</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,19 +8692,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>60.49244923701514</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8774,19 +8774,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>72.85507260968029</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>54.42200251657027</v>
+        <v>176.8008973295436</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8932,16 +8932,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>60.49244923701511</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>127.2770751262505</v>
+        <v>230.7984289569017</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>391.2261292428723</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9181,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>98.93303561408925</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,13 +9254,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>450.8053864477928</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569017</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>391.2261292428723</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9482,22 +9482,22 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>458.0981188384286</v>
+        <v>176.8008973295436</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>238.4053738684731</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>391.2261292428723</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>30.21968338400228</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9722,13 +9722,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>89.54312379457366</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>458.0981188384286</v>
+        <v>176.8008973295436</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>391.2261292428723</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>354.3650959551675</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>176.8008973295439</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,13 +9965,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>37.16554713105234</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>185.2684807830938</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10129,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>142.0501052952627</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>89.54312379457448</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263553</v>
       </c>
       <c r="N30" t="n">
-        <v>458.0981188384287</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>69.4274210713894</v>
       </c>
       <c r="L32" t="n">
-        <v>391.2261292428727</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10366,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>96.12069185784534</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>230.7984289569022</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>391.2261292428727</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10600,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>176.8008973295434</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>176.8008973295441</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10825,22 +10825,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P38" t="n">
-        <v>98.93303561408925</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K39" t="n">
-        <v>176.8008973295432</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10919,7 +10919,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569017</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11062,13 +11062,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>306.6259639043175</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>351.1062101964886</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11077,10 +11077,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>236.9873746883516</v>
+        <v>48.10560617263553</v>
       </c>
       <c r="N42" t="n">
-        <v>439.9214566933067</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,16 +11302,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>354.3650959551675</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,22 +11375,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>176.8008973295439</v>
       </c>
       <c r="L45" t="n">
-        <v>211.0329012241558</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22600,22 +22600,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>314.3754898894238</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22676,19 +22676,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T3" t="n">
-        <v>160.580851732981</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>186.3575051191342</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>197.9351083214361</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22749,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>110.2852409793091</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>324.3661891039686</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22880,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>108.4014864680378</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>191.0759032529857</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>193.2167101875847</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22983,19 +22983,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>386.4218192980553</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>342.105766276825</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>133.8368815566912</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,19 +23153,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>188.6684147701967</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>207.562810781691</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>161.6408128242489</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23220,16 +23220,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,19 +23260,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>140.5936908961629</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>126.8449921489595</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>151.7906678184092</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>157.8315260226345</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>315.0408840752156</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>81.17970188326818</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>51.36854316260544</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.9426654290986</v>
+        <v>41.22515631916403</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>289.1882335675286</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>118.4960408938903</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>138.6949576672599</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>72.66688054683263</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.1525607327513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.4424144496919</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23661,22 +23661,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>78.37724312657816</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>57.01706514741289</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>242.906929555346</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>33.3085463127494</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>2.232782772392568</v>
+        <v>31.24378655673286</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,7 +23907,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>123.266557879417</v>
@@ -23943,19 +23943,19 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>8.169277175868046</v>
+        <v>329.318765637662</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>96.22732467002746</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J22" t="n">
         <v>17.69584188176898</v>
@@ -24180,22 +24180,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>31.93087845973247</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>149.1774856623015</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>315.0408840752156</v>
+        <v>81.48452807403649</v>
       </c>
       <c r="I23" t="n">
         <v>118.4960408938903</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>57.72973419665556</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24420,19 +24420,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
-        <v>279.2802704148967</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>412.9169039459368</v>
+        <v>308.1922840273375</v>
       </c>
       <c r="H26" t="n">
         <v>315.0408840752156</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.377763162201063</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24609,22 +24609,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>126.8409723432651</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H28" t="n">
-        <v>73.75373894500379</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I28" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S28" t="n">
         <v>205.3658819001186</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24688,10 +24688,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>412.9169039459368</v>
@@ -24700,7 +24700,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
-        <v>110.2481842269354</v>
+        <v>9.409509738394775</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I31" t="n">
-        <v>94.36993185188805</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J31" t="n">
         <v>17.69584188176898</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S31" t="n">
         <v>205.3658819001186</v>
@@ -24900,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>82.56309279072255</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>96.9844815412726</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1547862223006</v>
+        <v>41.08250108125875</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>91.89790840853422</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J34" t="n">
         <v>17.69584188176898</v>
@@ -25134,16 +25134,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>200.009381347343</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>80.69593885307529</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>155.8760815620639</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25365,10 +25365,10 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T37" t="n">
-        <v>58.35886639452315</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>172.8515959387369</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>130.2724751409277</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
         <v>118.4960408938903</v>
@@ -25447,19 +25447,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>121.0719474438433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>91.89790840853422</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J40" t="n">
         <v>17.69584188176898</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>74.66143796603072</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1547862223006</v>
+        <v>99.09750117637117</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>151.4925489404676</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>25.09418201320219</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>49.77976304057138</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S43" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T43" t="n">
-        <v>223.3729047207587</v>
+        <v>92.48668140370663</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>313.7957916558854</v>
       </c>
       <c r="H44" t="n">
-        <v>301.0185525624054</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247049</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>256.6007066776691</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,28 +26025,28 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
-        <v>112.9362463670873</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
-        <v>104.7965952039006</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>101.5575724195736</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7486959972119</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>96.48721104172736</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355334.8862817869</v>
+        <v>498839.2872644283</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355334.886281787</v>
+        <v>498839.2872644283</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358732.3883940966</v>
+        <v>498839.2872644283</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>549252.2745108756</v>
+        <v>836519.6495866909</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>549252.2745108757</v>
+        <v>836519.6495866912</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>836519.6495866908</v>
+        <v>836519.6495866911</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>836519.6495866911</v>
+        <v>836519.6495866909</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>836519.6495866912</v>
+        <v>836519.6495866911</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>836519.6495866909</v>
+        <v>836519.6495866911</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>823584.6212039224</v>
+        <v>836519.6495866912</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>833348.2226253496</v>
+        <v>836519.6495866912</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94738.2395383456</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="C2" t="n">
-        <v>94738.23953834557</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>95642.40428095897</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>160854.113738964</v>
+        <v>237303.5238233911</v>
       </c>
       <c r="F2" t="n">
-        <v>160854.113738964</v>
+        <v>237303.5238233911</v>
       </c>
       <c r="G2" t="n">
-        <v>237303.5238233912</v>
+        <v>237303.5238233911</v>
       </c>
       <c r="H2" t="n">
-        <v>237303.5238233912</v>
+        <v>237303.5238233911</v>
       </c>
       <c r="I2" t="n">
         <v>237303.5238233911</v>
       </c>
       <c r="J2" t="n">
-        <v>237303.5238233911</v>
+        <v>237303.5238233912</v>
       </c>
       <c r="K2" t="n">
-        <v>237303.5238233911</v>
+        <v>237303.5238233912</v>
       </c>
       <c r="L2" t="n">
-        <v>237303.5238233911</v>
+        <v>237303.5238233912</v>
       </c>
       <c r="M2" t="n">
         <v>237303.5238233911</v>
@@ -26352,10 +26352,10 @@
         <v>237303.5238233912</v>
       </c>
       <c r="O2" t="n">
-        <v>233861.172289295</v>
+        <v>237303.5238233911</v>
       </c>
       <c r="P2" t="n">
-        <v>244777.3043954468</v>
+        <v>237303.5238233911</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1412.837005503236</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>539786.465644841</v>
+        <v>601530.6045241205</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>110641.5683420766</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1151.13263548214</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>52570.38263440534</v>
+        <v>104104.2745664029</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92770.82914708581</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>226687.7256774152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35626.73890167465</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="C4" t="n">
-        <v>35626.73890167465</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="D4" t="n">
-        <v>35976.14446872375</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="E4" t="n">
-        <v>6590.838313831423</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="F4" t="n">
-        <v>6590.838313831422</v>
+        <v>36133.96051511371</v>
       </c>
       <c r="G4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511371</v>
       </c>
       <c r="H4" t="n">
         <v>36133.96051511372</v>
@@ -26441,25 +26441,25 @@
         <v>36133.96051511372</v>
       </c>
       <c r="J4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="K4" t="n">
         <v>36133.96051511373</v>
       </c>
       <c r="L4" t="n">
+        <v>36133.96051511372</v>
+      </c>
+      <c r="M4" t="n">
+        <v>36133.96051511372</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36133.96051511371</v>
+      </c>
+      <c r="O4" t="n">
         <v>36133.96051511373</v>
       </c>
-      <c r="M4" t="n">
-        <v>36133.96051511374</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36133.96051511372</v>
-      </c>
-      <c r="O4" t="n">
-        <v>34803.69764036737</v>
-      </c>
       <c r="P4" t="n">
-        <v>7746.635554515848</v>
+        <v>36133.96051511373</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>28446.9699651066</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="F5" t="n">
-        <v>28446.9699651066</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="G5" t="n">
         <v>52990.47783747558</v>
@@ -26493,25 +26493,25 @@
         <v>52990.47783747558</v>
       </c>
       <c r="J5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="K5" t="n">
         <v>52990.47783747559</v>
       </c>
       <c r="L5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="M5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="N5" t="n">
         <v>52990.47783747558</v>
       </c>
       <c r="O5" t="n">
-        <v>51885.33677905217</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.17243984471</v>
+        <v>52990.47783747559</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9811.73331830815</v>
+        <v>-58725.17681781853</v>
       </c>
       <c r="C6" t="n">
-        <v>23077.20091739102</v>
+        <v>22044.25471372919</v>
       </c>
       <c r="D6" t="n">
-        <v>21942.58672607489</v>
+        <v>22044.25471372918</v>
       </c>
       <c r="E6" t="n">
-        <v>-413970.160184815</v>
+        <v>-459046.0930609638</v>
       </c>
       <c r="F6" t="n">
-        <v>125816.305460026</v>
+        <v>142484.5114631567</v>
       </c>
       <c r="G6" t="n">
-        <v>37537.51712872532</v>
+        <v>142484.5114631567</v>
       </c>
       <c r="H6" t="n">
-        <v>148179.0854708019</v>
+        <v>142484.5114631567</v>
       </c>
       <c r="I6" t="n">
-        <v>148179.0854708018</v>
+        <v>142484.5114631567</v>
       </c>
       <c r="J6" t="n">
-        <v>137822.2015669979</v>
+        <v>79424.56886405044</v>
       </c>
       <c r="K6" t="n">
-        <v>148179.0854708018</v>
+        <v>142484.5114631567</v>
       </c>
       <c r="L6" t="n">
-        <v>147027.9528353196</v>
+        <v>142484.5114631567</v>
       </c>
       <c r="M6" t="n">
-        <v>95608.70283639641</v>
+        <v>38380.23689675381</v>
       </c>
       <c r="N6" t="n">
-        <v>148179.0854708019</v>
+        <v>142484.5114631567</v>
       </c>
       <c r="O6" t="n">
-        <v>54401.30872278968</v>
+        <v>142484.5114631567</v>
       </c>
       <c r="P6" t="n">
-        <v>-48967.22927632889</v>
+        <v>142484.5114631566</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="P3" t="n">
-        <v>934.0648921175391</v>
+        <v>593.4761003380651</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>255.0853779233023</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="F4" t="n">
-        <v>255.0853779233023</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="G4" t="n">
         <v>658.7614942451606</v>
@@ -26813,25 +26813,25 @@
         <v>658.7614942451606</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="K4" t="n">
         <v>658.7614942451607</v>
       </c>
       <c r="L4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="M4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="N4" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="O4" t="n">
-        <v>640.5848321000387</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="P4" t="n">
-        <v>640.5848321000387</v>
+        <v>658.7614942451607</v>
       </c>
     </row>
   </sheetData>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>340.588791779474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.548295417388005</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>210.9532055440737</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>403.6761163218583</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.548295417387976</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>210.9532055440737</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>385.4994541767364</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.548295417388005</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>210.9532055440737</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>403.6761163218583</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -33055,7 +33055,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T27" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U27" t="n">
         <v>0.08398246702897151</v>
@@ -33529,7 +33529,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T33" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U33" t="n">
         <v>0.08398246702897151</v>
@@ -33766,7 +33766,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T36" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U36" t="n">
         <v>0.08398246702897151</v>
@@ -34003,7 +34003,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T39" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U39" t="n">
         <v>0.08398246702897151</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.755034742181059</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H44" t="n">
-        <v>38.45624955336178</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I44" t="n">
-        <v>144.7659768979354</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J44" t="n">
-        <v>318.7038799491899</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K44" t="n">
-        <v>477.6545005857142</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L44" t="n">
-        <v>592.5726450767379</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M44" t="n">
-        <v>659.3512441730003</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N44" t="n">
-        <v>670.0202366342223</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O44" t="n">
-        <v>632.6811099166594</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P44" t="n">
-        <v>539.9786897190644</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q44" t="n">
-        <v>405.5015080147051</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R44" t="n">
-        <v>235.8772011235311</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>85.56785418745096</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T44" t="n">
-        <v>16.43766458389759</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.00912071134716</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H45" t="n">
-        <v>19.4038763438002</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I45" t="n">
-        <v>69.17367361436493</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J45" t="n">
-        <v>189.8178475575841</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K45" t="n">
-        <v>324.4289352178438</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L45" t="n">
-        <v>436.2347404177243</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M45" t="n">
-        <v>509.0653662040588</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N45" t="n">
-        <v>522.5388116762072</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O45" t="n">
-        <v>478.0209264405674</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P45" t="n">
-        <v>383.6539365378625</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q45" t="n">
-        <v>256.462496416876</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R45" t="n">
-        <v>124.741722762414</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S45" t="n">
-        <v>37.31853601997901</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T45" t="n">
-        <v>8.098166376000171</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.684379313654579</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H46" t="n">
-        <v>14.97566335231072</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I46" t="n">
-        <v>50.6538797233577</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J46" t="n">
-        <v>119.0856174753787</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K46" t="n">
-        <v>195.6942511682319</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L46" t="n">
-        <v>250.4212663227908</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M46" t="n">
-        <v>264.0341136849627</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N46" t="n">
-        <v>257.7559726067958</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O46" t="n">
-        <v>238.0793597154672</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P46" t="n">
-        <v>203.7180217169137</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q46" t="n">
-        <v>141.0437987097484</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R46" t="n">
-        <v>75.73581895759585</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S46" t="n">
-        <v>29.35413767523478</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T46" t="n">
-        <v>7.196893431069561</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>39.58387696184059</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>37.98452839772582</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>37.98452839772582</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35105,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>42.34905430330016</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>42.34905430330018</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,19 +35412,19 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K11" t="n">
-        <v>143.8895750699367</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L11" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M11" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N11" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O11" t="n">
-        <v>171.8879043605652</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P11" t="n">
         <v>111.8528537874005</v>
@@ -35494,19 +35494,19 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L12" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M12" t="n">
-        <v>254.1655133719074</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N12" t="n">
-        <v>255.0853779233023</v>
+        <v>377.4642727362756</v>
       </c>
       <c r="O12" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P12" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q12" t="n">
         <v>22.96660727472423</v>
@@ -35652,16 +35652,16 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L14" t="n">
-        <v>201.228465238281</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M14" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N14" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O14" t="n">
-        <v>171.8879043605652</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P14" t="n">
         <v>111.8528537874005</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L15" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M15" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N15" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O15" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P15" t="n">
-        <v>237.0645776790776</v>
+        <v>340.5859315097288</v>
       </c>
       <c r="Q15" t="n">
         <v>22.96660727472423</v>
@@ -35886,13 +35886,13 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K17" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
-        <v>531.9621452441381</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N17" t="n">
         <v>633.6441091513602</v>
@@ -35901,7 +35901,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
-        <v>111.8528537874005</v>
+        <v>210.7858894014898</v>
       </c>
       <c r="Q17" t="n">
         <v>35.33749497130819</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
         <v>509.4561008748672</v>
@@ -35974,13 +35974,13 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N18" t="n">
-        <v>651.4687618545248</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O18" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P18" t="n">
-        <v>428.2502711927643</v>
+        <v>340.5859315097288</v>
       </c>
       <c r="Q18" t="n">
         <v>22.96660727472423</v>
@@ -36126,7 +36126,7 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L20" t="n">
-        <v>531.9621452441381</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M20" t="n">
         <v>638.0987989730422</v>
@@ -36135,7 +36135,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P20" t="n">
         <v>111.8528537874005</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L21" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M21" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N21" t="n">
-        <v>658.7614942451606</v>
+        <v>377.4642727362756</v>
       </c>
       <c r="O21" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P21" t="n">
-        <v>348.1928764213002</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q21" t="n">
         <v>22.96660727472423</v>
@@ -36360,10 +36360,10 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K23" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L23" t="n">
-        <v>531.9621452441381</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M23" t="n">
         <v>638.0987989730422</v>
@@ -36372,7 +36372,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O23" t="n">
-        <v>552.6880856233105</v>
+        <v>202.1075877445674</v>
       </c>
       <c r="P23" t="n">
         <v>111.8528537874005</v>
@@ -36442,13 +36442,13 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L24" t="n">
-        <v>228.1588793659817</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M24" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N24" t="n">
-        <v>658.7614942451606</v>
+        <v>377.4642727362756</v>
       </c>
       <c r="O24" t="n">
         <v>554.9858674269929</v>
@@ -36600,7 +36600,7 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L26" t="n">
-        <v>531.9621452441381</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M26" t="n">
         <v>638.0987989730422</v>
@@ -36609,7 +36609,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O26" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157326</v>
       </c>
       <c r="P26" t="n">
         <v>111.8528537874005</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>68.29072693268387</v>
+        <v>245.0916242622278</v>
       </c>
       <c r="L27" t="n">
         <v>509.4561008748672</v>
@@ -36685,13 +36685,13 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N27" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P27" t="n">
-        <v>146.9530496838794</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q27" t="n">
         <v>22.96660727472423</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K29" t="n">
-        <v>268.6656066160153</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L29" t="n">
         <v>558.3972305517163</v>
@@ -36849,10 +36849,10 @@
         <v>171.8879043605652</v>
       </c>
       <c r="P29" t="n">
-        <v>111.8528537874005</v>
+        <v>253.9029590826633</v>
       </c>
       <c r="Q29" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K30" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L30" t="n">
-        <v>228.1588793659825</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M30" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348626</v>
       </c>
       <c r="N30" t="n">
-        <v>658.7614942451607</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O30" t="n">
         <v>554.9858674269929</v>
@@ -36931,7 +36931,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K32" t="n">
-        <v>83.39712583292157</v>
+        <v>152.824546904311</v>
       </c>
       <c r="L32" t="n">
-        <v>531.9621452441386</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M32" t="n">
         <v>638.0987989730422</v>
@@ -37086,7 +37086,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P32" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q32" t="n">
         <v>35.33749497130819</v>
@@ -37159,16 +37159,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N33" t="n">
-        <v>200.663375406732</v>
+        <v>296.7840672645773</v>
       </c>
       <c r="O33" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P33" t="n">
-        <v>340.5859315097293</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L35" t="n">
-        <v>531.9621452441386</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M35" t="n">
         <v>638.0987989730422</v>
@@ -37320,7 +37320,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O35" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P35" t="n">
         <v>111.8528537874005</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>68.29072693268387</v>
+        <v>245.0916242622273</v>
       </c>
       <c r="L36" t="n">
         <v>509.4561008748672</v>
@@ -37396,7 +37396,7 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N36" t="n">
-        <v>377.4642727362761</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O36" t="n">
         <v>554.9858674269929</v>
@@ -37545,22 +37545,22 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K38" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L38" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M38" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N38" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O38" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P38" t="n">
-        <v>210.7858894014898</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q38" t="n">
         <v>35.33749497130819</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>245.0916242622271</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L39" t="n">
         <v>509.4561008748672</v>
@@ -37639,7 +37639,7 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P39" t="n">
-        <v>428.2502711927643</v>
+        <v>340.5859315097288</v>
       </c>
       <c r="Q39" t="n">
         <v>22.96660727472423</v>
@@ -37782,13 +37782,13 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K41" t="n">
-        <v>83.39712583292157</v>
+        <v>390.0230897372391</v>
       </c>
       <c r="L41" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M41" t="n">
-        <v>539.6914756766984</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N41" t="n">
         <v>633.6441091513602</v>
@@ -37797,10 +37797,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P41" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q41" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K42" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L42" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>418.2978154505787</v>
+        <v>229.4160469348626</v>
       </c>
       <c r="N42" t="n">
-        <v>640.5848321000387</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O42" t="n">
         <v>554.9858674269929</v>
@@ -37879,7 +37879,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>137.6579754225036</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K44" t="n">
-        <v>257.5646495407337</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L44" t="n">
-        <v>356.8062301067507</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M44" t="n">
-        <v>429.0050109457276</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N44" t="n">
-        <v>440.6071730376314</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O44" t="n">
-        <v>402.5828984949726</v>
+        <v>526.2530003157326</v>
       </c>
       <c r="P44" t="n">
-        <v>308.7456939637948</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.1958181402556</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R44" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>62.98022089091739</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>186.5874962434848</v>
+        <v>245.0916242622278</v>
       </c>
       <c r="L45" t="n">
-        <v>508.7132618620059</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>366.9313322820404</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N45" t="n">
-        <v>391.1970995928739</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O45" t="n">
-        <v>335.424681996123</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P45" t="n">
-        <v>568.1422977634694</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q45" t="n">
-        <v>116.4807223308545</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.72643735870592</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>173.424759342349</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L46" t="n">
-        <v>278.0112915831069</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M46" t="n">
-        <v>303.6179906468033</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N46" t="n">
-        <v>301.8881449860244</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O46" t="n">
-        <v>262.6644876295069</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P46" t="n">
-        <v>200.9965809818072</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.881755458054</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>325556.3918026246</v>
+        <v>388611.9305032946</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3842442.348868393</v>
+        <v>5530772.757762744</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10498891.99518629</v>
+        <v>12153624.62894364</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8698202.045674903</v>
+        <v>7792903.264408386</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>212.2853856434421</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>38.87161743162455</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -858,28 +858,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>29.05241763862484</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>112.4598285550407</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>73.473185244872</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
         <v>212.651863114966</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>48.2094242191796</v>
       </c>
       <c r="G12" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.900780601835</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.6068238627733</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>241.3371927943148</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.54560809595191</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>228.6097925758463</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643704</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958667</v>
+        <v>12.08930411804516</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.8573996139459</v>
@@ -1748,13 +1748,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>88.40398287551835</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>4.254030753560224</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>128.1960058760374</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>315.9324224046636</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>136.003034541895</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>52.12826197648501</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>83.59813830827486</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>67.68784138395957</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183509</v>
+        <v>20.900780601835</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>193.7787769293047</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>157.2381719431888</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>412.9169039459368</v>
+        <v>99.62848717252292</v>
       </c>
       <c r="H23" t="n">
-        <v>233.5563560011791</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>90.8857388215568</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
-        <v>286.260654658097</v>
+        <v>35.74512284626971</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>104.7246199185993</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.651863114966</v>
+        <v>119.6112442511073</v>
       </c>
       <c r="U26" t="n">
         <v>251.1547862223006</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>19.59299030330403</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>6.980384243200406</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>231.1434651664921</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>109.0865311554955</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>136.0215605613722</v>
+        <v>193.7787769293047</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>310.2672524380686</v>
       </c>
       <c r="G32" t="n">
         <v>412.9169039459368</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>210.0722851410419</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>151.0482174230064</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>52.12826197648501</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>302.0379028104053</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>77.73609831929346</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>45.73305741335791</v>
+        <v>103.7969424489236</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>251.6578949313341</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3556,19 +3556,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>7.617039758358882</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>172.4858583785637</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>151.0482174230064</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>412.9169039459368</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
-        <v>152.0572850459295</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>90.24492402250834</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I42" t="n">
-        <v>45.4458084395873</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>142.4361410009234</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>130.8862233170521</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3985,13 +3985,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>99.12111229005137</v>
+        <v>367.5268342808869</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>79.54865892385533</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>129.2224443473098</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.1596022224361</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C2" t="n">
-        <v>233.7108255783361</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D2" t="n">
-        <v>233.7108255783361</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>928.2922408909005</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>726.1056462496665</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U3" t="n">
-        <v>497.8820279860555</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V3" t="n">
-        <v>262.7299197543128</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.90796037760316</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C6" t="n">
-        <v>23.90796037760316</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D6" t="n">
-        <v>23.90796037760316</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E6" t="n">
-        <v>23.90796037760316</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>23.90796037760316</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>23.90796037760316</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M6" t="n">
-        <v>249.2442489785619</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N6" t="n">
-        <v>487.8483949674443</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O6" t="n">
-        <v>726.4525409563269</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>23.90796037760316</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X6" t="n">
-        <v>23.90796037760316</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.90796037760316</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>934.7112791079849</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U9" t="n">
-        <v>706.487660844374</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V9" t="n">
-        <v>471.3355526126313</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W9" t="n">
-        <v>227.8867759685313</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1624.828557297788</v>
+        <v>649.3266124577483</v>
       </c>
       <c r="C11" t="n">
-        <v>1624.828557297788</v>
+        <v>391.6646145554228</v>
       </c>
       <c r="D11" t="n">
-        <v>1266.562858691037</v>
+        <v>391.6646145554228</v>
       </c>
       <c r="E11" t="n">
-        <v>880.774606092793</v>
+        <v>391.6646145554228</v>
       </c>
       <c r="F11" t="n">
-        <v>469.7887013031854</v>
+        <v>391.6646145554228</v>
       </c>
       <c r="G11" t="n">
-        <v>52.70091953961285</v>
+        <v>391.6646145554228</v>
       </c>
       <c r="H11" t="n">
-        <v>52.70091953961285</v>
+        <v>134.0026166530972</v>
       </c>
       <c r="I11" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J11" t="n">
-        <v>73.93516953299616</v>
+        <v>41.64108022724748</v>
       </c>
       <c r="K11" t="n">
-        <v>156.4983241075885</v>
+        <v>124.2042348018398</v>
       </c>
       <c r="L11" t="n">
-        <v>709.3115823537878</v>
+        <v>263.532890643093</v>
       </c>
       <c r="M11" t="n">
-        <v>1341.029393337099</v>
+        <v>450.2323034685007</v>
       </c>
       <c r="N11" t="n">
-        <v>1968.337061396946</v>
+        <v>644.5665163604831</v>
       </c>
       <c r="O11" t="n">
-        <v>2489.327531709521</v>
+        <v>814.7355416774426</v>
       </c>
       <c r="P11" t="n">
-        <v>2600.061856959047</v>
+        <v>985.357391671614</v>
       </c>
       <c r="Q11" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R11" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S11" t="n">
-        <v>2560.830638349459</v>
+        <v>864.1264741900372</v>
       </c>
       <c r="T11" t="n">
-        <v>2346.03077661717</v>
+        <v>649.3266124577483</v>
       </c>
       <c r="U11" t="n">
-        <v>2346.03077661717</v>
+        <v>649.3266124577483</v>
       </c>
       <c r="V11" t="n">
-        <v>2014.967889273599</v>
+        <v>649.3266124577483</v>
       </c>
       <c r="W11" t="n">
-        <v>2014.967889273599</v>
+        <v>649.3266124577483</v>
       </c>
       <c r="X11" t="n">
-        <v>2014.967889273599</v>
+        <v>649.3266124577483</v>
       </c>
       <c r="Y11" t="n">
-        <v>1624.828557297788</v>
+        <v>649.3266124577483</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>966.1226039662187</v>
+        <v>355.4790256360749</v>
       </c>
       <c r="C12" t="n">
-        <v>791.6695746850917</v>
+        <v>355.4790256360749</v>
       </c>
       <c r="D12" t="n">
-        <v>642.7351650238404</v>
+        <v>206.5446159748237</v>
       </c>
       <c r="E12" t="n">
-        <v>483.4977100183849</v>
+        <v>206.5446159748237</v>
       </c>
       <c r="F12" t="n">
-        <v>336.9631520452699</v>
+        <v>157.8482278746422</v>
       </c>
       <c r="G12" t="n">
-        <v>199.5217544044918</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H12" t="n">
-        <v>98.60577654929637</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I12" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J12" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K12" t="n">
-        <v>120.3087392029699</v>
+        <v>88.01464989722122</v>
       </c>
       <c r="L12" t="n">
-        <v>624.6702790690885</v>
+        <v>225.2442479129152</v>
       </c>
       <c r="M12" t="n">
-        <v>1265.215628536193</v>
+        <v>404.74158426752</v>
       </c>
       <c r="N12" t="n">
-        <v>1638.905258545106</v>
+        <v>603.3983259201847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.341267297829</v>
+        <v>762.9106385889453</v>
       </c>
       <c r="P12" t="n">
-        <v>2612.309035778665</v>
+        <v>871.6002661162441</v>
       </c>
       <c r="Q12" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R12" t="n">
-        <v>2613.934077382829</v>
+        <v>999.2296120953959</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.467288245464</v>
+        <v>999.2296120953959</v>
       </c>
       <c r="T12" t="n">
-        <v>2267.477992405552</v>
+        <v>999.2296120953959</v>
       </c>
       <c r="U12" t="n">
-        <v>2039.339204916718</v>
+        <v>771.0908246065617</v>
       </c>
       <c r="V12" t="n">
-        <v>1804.187096684975</v>
+        <v>771.0908246065617</v>
       </c>
       <c r="W12" t="n">
-        <v>1549.949739956773</v>
+        <v>771.0908246065617</v>
       </c>
       <c r="X12" t="n">
-        <v>1342.09823975124</v>
+        <v>563.2393244010289</v>
       </c>
       <c r="Y12" t="n">
-        <v>1134.337940986287</v>
+        <v>355.4790256360749</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>368.5270499654301</v>
+        <v>337.2561067441642</v>
       </c>
       <c r="C13" t="n">
-        <v>199.5908670375232</v>
+        <v>168.3199238162573</v>
       </c>
       <c r="D13" t="n">
-        <v>199.5908670375232</v>
+        <v>168.3199238162573</v>
       </c>
       <c r="E13" t="n">
-        <v>199.5908670375232</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="F13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="G13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J13" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7488491352227</v>
+        <v>121.454759829474</v>
       </c>
       <c r="L13" t="n">
-        <v>338.581844036041</v>
+        <v>306.2877547302924</v>
       </c>
       <c r="M13" t="n">
-        <v>543.851444755279</v>
+        <v>511.5573554495303</v>
       </c>
       <c r="N13" t="n">
-        <v>749.6748095913833</v>
+        <v>717.3807202856347</v>
       </c>
       <c r="O13" t="n">
-        <v>923.7697049799822</v>
+        <v>891.4756156742335</v>
       </c>
       <c r="P13" t="n">
-        <v>1049.217281578598</v>
+        <v>1016.923192272849</v>
       </c>
       <c r="Q13" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R13" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S13" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="T13" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="U13" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="V13" t="n">
-        <v>797.9511127930708</v>
+        <v>776.5665694767295</v>
       </c>
       <c r="W13" t="n">
-        <v>508.5339427561102</v>
+        <v>518.9045715744039</v>
       </c>
       <c r="X13" t="n">
-        <v>508.5339427561102</v>
+        <v>518.9045715744039</v>
       </c>
       <c r="Y13" t="n">
-        <v>508.5339427561102</v>
+        <v>518.9045715744039</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1584.785973918528</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="C14" t="n">
-        <v>1584.785973918528</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="D14" t="n">
-        <v>1584.785973918528</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="E14" t="n">
-        <v>1198.997721320284</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="F14" t="n">
-        <v>788.0118165306759</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="G14" t="n">
-        <v>370.9240347671034</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H14" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I14" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J14" t="n">
-        <v>73.93516953299616</v>
+        <v>41.64108022724748</v>
       </c>
       <c r="K14" t="n">
-        <v>156.4983241075885</v>
+        <v>124.2042348018398</v>
       </c>
       <c r="L14" t="n">
-        <v>709.3115823537878</v>
+        <v>263.532890643093</v>
       </c>
       <c r="M14" t="n">
-        <v>1341.029393337099</v>
+        <v>450.2323034685007</v>
       </c>
       <c r="N14" t="n">
-        <v>1968.337061396946</v>
+        <v>644.5665163604831</v>
       </c>
       <c r="O14" t="n">
-        <v>2489.327531709521</v>
+        <v>814.7355416774426</v>
       </c>
       <c r="P14" t="n">
-        <v>2600.061856959047</v>
+        <v>925.4698669269691</v>
       </c>
       <c r="Q14" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R14" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="S14" t="n">
-        <v>2478.830939477471</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="T14" t="n">
-        <v>2264.031077745182</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="U14" t="n">
-        <v>2010.339374490333</v>
+        <v>766.64980843836</v>
       </c>
       <c r="V14" t="n">
-        <v>1679.276487146762</v>
+        <v>508.9878105360344</v>
       </c>
       <c r="W14" t="n">
-        <v>1679.276487146762</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="X14" t="n">
-        <v>1679.276487146762</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="Y14" t="n">
-        <v>1679.276487146762</v>
+        <v>278.0688281361897</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.1226039662188</v>
+        <v>328.0872161692862</v>
       </c>
       <c r="C15" t="n">
-        <v>791.6695746850918</v>
+        <v>328.0872161692862</v>
       </c>
       <c r="D15" t="n">
-        <v>642.7351650238405</v>
+        <v>179.1528065080349</v>
       </c>
       <c r="E15" t="n">
-        <v>483.497710018385</v>
+        <v>179.1528065080349</v>
       </c>
       <c r="F15" t="n">
-        <v>336.96315204527</v>
+        <v>32.6182485349199</v>
       </c>
       <c r="G15" t="n">
-        <v>199.5217544044918</v>
+        <v>32.6182485349199</v>
       </c>
       <c r="H15" t="n">
-        <v>98.60577654929637</v>
+        <v>32.6182485349199</v>
       </c>
       <c r="I15" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J15" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K15" t="n">
-        <v>382.1293238454227</v>
+        <v>88.01464989722122</v>
       </c>
       <c r="L15" t="n">
-        <v>886.4908637115414</v>
+        <v>225.2442479129152</v>
       </c>
       <c r="M15" t="n">
-        <v>1527.036213178646</v>
+        <v>404.74158426752</v>
       </c>
       <c r="N15" t="n">
-        <v>1725.692954831311</v>
+        <v>603.3983259201847</v>
       </c>
       <c r="O15" t="n">
-        <v>2275.128963584034</v>
+        <v>855.9328500642539</v>
       </c>
       <c r="P15" t="n">
-        <v>2612.309035778665</v>
+        <v>964.6224775915528</v>
       </c>
       <c r="Q15" t="n">
-        <v>2635.045976980643</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R15" t="n">
-        <v>2613.934077382829</v>
+        <v>999.2296120953959</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.467288245464</v>
+        <v>999.2296120953959</v>
       </c>
       <c r="T15" t="n">
-        <v>2267.477992405552</v>
+        <v>999.2296120953959</v>
       </c>
       <c r="U15" t="n">
-        <v>2039.339204916718</v>
+        <v>771.0908246065617</v>
       </c>
       <c r="V15" t="n">
-        <v>1804.187096684975</v>
+        <v>535.938716374819</v>
       </c>
       <c r="W15" t="n">
-        <v>1549.949739956774</v>
+        <v>535.938716374819</v>
       </c>
       <c r="X15" t="n">
-        <v>1342.098239751241</v>
+        <v>328.0872161692862</v>
       </c>
       <c r="Y15" t="n">
-        <v>1134.337940986287</v>
+        <v>328.0872161692862</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.218430961997</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="C16" t="n">
-        <v>594.2822480340901</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="D16" t="n">
-        <v>444.1656086217544</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="E16" t="n">
-        <v>296.2525150393612</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="F16" t="n">
-        <v>206.9555626398478</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="G16" t="n">
-        <v>206.9555626398478</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="H16" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="I16" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="J16" t="n">
-        <v>52.70091953961285</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7488491352227</v>
+        <v>121.454759829474</v>
       </c>
       <c r="L16" t="n">
-        <v>338.581844036041</v>
+        <v>306.2877547302924</v>
       </c>
       <c r="M16" t="n">
-        <v>543.851444755279</v>
+        <v>511.5573554495303</v>
       </c>
       <c r="N16" t="n">
-        <v>749.6748095913833</v>
+        <v>717.3807202856347</v>
       </c>
       <c r="O16" t="n">
-        <v>923.7697049799822</v>
+        <v>891.4756156742335</v>
       </c>
       <c r="P16" t="n">
-        <v>1049.217281578598</v>
+        <v>1016.923192272849</v>
       </c>
       <c r="Q16" t="n">
-        <v>1052.635600998958</v>
+        <v>1020.341511693209</v>
       </c>
       <c r="R16" t="n">
-        <v>1052.635600998958</v>
+        <v>1016.044510932037</v>
       </c>
       <c r="S16" t="n">
-        <v>1052.635600998958</v>
+        <v>1016.044510932037</v>
       </c>
       <c r="T16" t="n">
-        <v>1052.635600998958</v>
+        <v>790.4153142444021</v>
       </c>
       <c r="U16" t="n">
-        <v>1052.635600998958</v>
+        <v>532.7533163420766</v>
       </c>
       <c r="V16" t="n">
-        <v>1052.635600998958</v>
+        <v>278.0688281361897</v>
       </c>
       <c r="W16" t="n">
-        <v>763.218430961997</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="X16" t="n">
-        <v>763.218430961997</v>
+        <v>20.40683023386418</v>
       </c>
       <c r="Y16" t="n">
-        <v>763.218430961997</v>
+        <v>20.40683023386418</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1165.717387685019</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="C17" t="n">
-        <v>796.7548707446076</v>
+        <v>957.5453149362363</v>
       </c>
       <c r="D17" t="n">
-        <v>438.4891721378571</v>
+        <v>599.2796163294859</v>
       </c>
       <c r="E17" t="n">
-        <v>52.70091953961285</v>
+        <v>599.2796163294859</v>
       </c>
       <c r="F17" t="n">
-        <v>52.70091953961285</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G17" t="n">
         <v>52.70091953961285</v>
@@ -5542,25 +5542,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S17" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T17" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U17" t="n">
-        <v>2635.045976980643</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V17" t="n">
-        <v>2635.045976980643</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W17" t="n">
-        <v>2315.922317986033</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X17" t="n">
-        <v>1942.456559724953</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="Y17" t="n">
-        <v>1552.317227749141</v>
+        <v>1326.507831876648</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J18" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K18" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L18" t="n">
-        <v>886.4908637115414</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M18" t="n">
-        <v>1527.036213178646</v>
+        <v>1278.563523185117</v>
       </c>
       <c r="N18" t="n">
-        <v>1725.692954831311</v>
+        <v>1930.737402487826</v>
       </c>
       <c r="O18" t="n">
-        <v>2275.128963584034</v>
+        <v>2090.249715156587</v>
       </c>
       <c r="P18" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q18" t="n">
         <v>2635.045976980643</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>344.3323652074184</v>
+        <v>369.5501960499129</v>
       </c>
       <c r="C19" t="n">
-        <v>206.9555626398478</v>
+        <v>200.614013122006</v>
       </c>
       <c r="D19" t="n">
-        <v>206.9555626398478</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E19" t="n">
-        <v>206.9555626398478</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F19" t="n">
-        <v>206.9555626398478</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G19" t="n">
-        <v>206.9555626398478</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H19" t="n">
         <v>52.70091953961285</v>
@@ -5703,22 +5703,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T19" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U19" t="n">
-        <v>827.0064043113226</v>
+        <v>999.9807909217001</v>
       </c>
       <c r="V19" t="n">
-        <v>572.3219161054358</v>
+        <v>999.9807909217001</v>
       </c>
       <c r="W19" t="n">
-        <v>572.3219161054358</v>
+        <v>999.9807909217001</v>
       </c>
       <c r="X19" t="n">
-        <v>344.3323652074184</v>
+        <v>771.9912400236827</v>
       </c>
       <c r="Y19" t="n">
-        <v>344.3323652074184</v>
+        <v>551.1986608801526</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>933.9176408752171</v>
+        <v>1239.040304699543</v>
       </c>
       <c r="C20" t="n">
-        <v>933.9176408752171</v>
+        <v>1239.040304699543</v>
       </c>
       <c r="D20" t="n">
-        <v>933.9176408752171</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E20" t="n">
-        <v>548.1293882769728</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F20" t="n">
-        <v>137.1434834873652</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G20" t="n">
         <v>52.70091953961285</v>
@@ -5752,25 +5752,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J20" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K20" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L20" t="n">
-        <v>709.3115823537878</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M20" t="n">
-        <v>1341.029393337099</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N20" t="n">
-        <v>1968.337061396946</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O20" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P20" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q20" t="n">
         <v>2635.045976980643</v>
@@ -5782,22 +5782,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T20" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U20" t="n">
-        <v>2381.354273725794</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V20" t="n">
-        <v>2050.291386382223</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.522731112109</v>
+        <v>2067.477459978239</v>
       </c>
       <c r="X20" t="n">
-        <v>1324.056972851029</v>
+        <v>1694.01170171716</v>
       </c>
       <c r="Y20" t="n">
-        <v>933.9176408752171</v>
+        <v>1625.640144763665</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C21" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D21" t="n">
         <v>642.7351650238404</v>
@@ -5834,22 +5834,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K21" t="n">
-        <v>120.3087392029699</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L21" t="n">
-        <v>624.6702790690885</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M21" t="n">
-        <v>1265.215628536193</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N21" t="n">
-        <v>1638.905258545106</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P21" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q21" t="n">
         <v>2635.045976980643</v>
@@ -5870,10 +5870,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W21" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X21" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y21" t="n">
         <v>1134.337940986287</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.70091953961285</v>
+        <v>349.7075064498589</v>
       </c>
       <c r="C22" t="n">
-        <v>52.70091953961285</v>
+        <v>349.7075064498589</v>
       </c>
       <c r="D22" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="E22" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F22" t="n">
         <v>52.70091953961285</v>
@@ -5940,22 +5940,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T22" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U22" t="n">
-        <v>537.8542278890025</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V22" t="n">
-        <v>537.8542278890025</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W22" t="n">
-        <v>248.4370578520418</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="X22" t="n">
-        <v>52.70091953961285</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.70091953961285</v>
+        <v>349.7075064498589</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1871.440886743751</v>
+        <v>1677.338128002428</v>
       </c>
       <c r="C23" t="n">
-        <v>1502.478369803339</v>
+        <v>1308.375611062016</v>
       </c>
       <c r="D23" t="n">
-        <v>1502.478369803339</v>
+        <v>950.1099124552657</v>
       </c>
       <c r="E23" t="n">
-        <v>1116.690117205095</v>
+        <v>564.3216598570214</v>
       </c>
       <c r="F23" t="n">
-        <v>705.7042124154875</v>
+        <v>153.3357550674138</v>
       </c>
       <c r="G23" t="n">
-        <v>288.616430651915</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H23" t="n">
         <v>52.70091953961285</v>
@@ -5989,25 +5989,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J23" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K23" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L23" t="n">
-        <v>1030.215540799241</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M23" t="n">
-        <v>1661.933351782553</v>
+        <v>1537.640273297155</v>
       </c>
       <c r="N23" t="n">
-        <v>2289.241019842399</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O23" t="n">
-        <v>2489.327531709521</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P23" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q23" t="n">
         <v>2635.045976980643</v>
@@ -6019,22 +6019,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T23" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U23" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V23" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="W23" t="n">
-        <v>2635.045976980643</v>
+        <v>2067.477459978239</v>
       </c>
       <c r="X23" t="n">
-        <v>2261.580218719563</v>
+        <v>2067.477459978239</v>
       </c>
       <c r="Y23" t="n">
-        <v>1871.440886743751</v>
+        <v>1677.338128002428</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C24" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D24" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E24" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F24" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G24" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H24" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I24" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J24" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="K24" t="n">
-        <v>120.3087392029699</v>
+        <v>157.1026308627111</v>
       </c>
       <c r="L24" t="n">
-        <v>624.6702790690885</v>
+        <v>661.4641707288297</v>
       </c>
       <c r="M24" t="n">
-        <v>1265.215628536193</v>
+        <v>1302.009520195934</v>
       </c>
       <c r="N24" t="n">
-        <v>1638.905258545106</v>
+        <v>1954.183399498643</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.341267297829</v>
+        <v>2503.619408251366</v>
       </c>
       <c r="P24" t="n">
         <v>2612.309035778665</v>
       </c>
       <c r="Q24" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R24" t="n">
         <v>2613.934077382829</v>
@@ -6101,7 +6101,7 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U24" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V24" t="n">
         <v>1804.187096684975</v>
@@ -6113,7 +6113,7 @@
         <v>1342.09823975124</v>
       </c>
       <c r="Y24" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>292.4177897094371</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C25" t="n">
-        <v>292.4177897094371</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D25" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E25" t="n">
         <v>52.70091953961285</v>
@@ -6177,22 +6177,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T25" t="n">
-        <v>1052.635600998958</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U25" t="n">
-        <v>763.4834245766374</v>
+        <v>790.9002196181209</v>
       </c>
       <c r="V25" t="n">
-        <v>763.4834245766374</v>
+        <v>790.9002196181209</v>
       </c>
       <c r="W25" t="n">
-        <v>474.0662545396768</v>
+        <v>501.4830495811603</v>
       </c>
       <c r="X25" t="n">
-        <v>474.0662545396768</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y25" t="n">
-        <v>474.0662545396768</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>902.5373151068291</v>
+        <v>1576.703292474627</v>
       </c>
       <c r="C26" t="n">
-        <v>902.5373151068291</v>
+        <v>1207.740775534215</v>
       </c>
       <c r="D26" t="n">
-        <v>544.2716165000786</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="E26" t="n">
-        <v>158.4833639018344</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="F26" t="n">
-        <v>158.4833639018344</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G26" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H26" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I26" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J26" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K26" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L26" t="n">
-        <v>709.3115823537878</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M26" t="n">
-        <v>1341.029393337099</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N26" t="n">
-        <v>1968.337061396946</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O26" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P26" t="n">
-        <v>2600.061856959048</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q26" t="n">
         <v>2635.045976980643</v>
@@ -6253,25 +6253,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S26" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T26" t="n">
-        <v>2264.031077745182</v>
+        <v>2514.22653834316</v>
       </c>
       <c r="U26" t="n">
-        <v>2010.339374490333</v>
+        <v>2260.534835088311</v>
       </c>
       <c r="V26" t="n">
-        <v>1679.276487146763</v>
+        <v>1929.471947744741</v>
       </c>
       <c r="W26" t="n">
-        <v>1679.276487146763</v>
+        <v>1576.703292474627</v>
       </c>
       <c r="X26" t="n">
-        <v>1679.276487146763</v>
+        <v>1576.703292474627</v>
       </c>
       <c r="Y26" t="n">
-        <v>1289.137155170951</v>
+        <v>1576.703292474627</v>
       </c>
     </row>
     <row r="27">
@@ -6281,55 +6281,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C27" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D27" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E27" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F27" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G27" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H27" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I27" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J27" t="n">
-        <v>52.70091953961286</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K27" t="n">
-        <v>295.3416275592184</v>
+        <v>500.7885757023182</v>
       </c>
       <c r="L27" t="n">
-        <v>799.7031674253369</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M27" t="n">
-        <v>1440.248516892442</v>
+        <v>1645.695465035541</v>
       </c>
       <c r="N27" t="n">
-        <v>1638.905258545106</v>
+        <v>2297.86934433825</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.341267297829</v>
+        <v>2503.619408251366</v>
       </c>
       <c r="P27" t="n">
-        <v>2612.309035778666</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q27" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R27" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S27" t="n">
         <v>2464.467288245464</v>
@@ -6338,19 +6338,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U27" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V27" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W27" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X27" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y27" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>219.3817663337899</v>
+        <v>59.75181271456276</v>
       </c>
       <c r="C28" t="n">
-        <v>219.3817663337899</v>
+        <v>59.75181271456276</v>
       </c>
       <c r="D28" t="n">
-        <v>219.3817663337899</v>
+        <v>59.75181271456276</v>
       </c>
       <c r="E28" t="n">
-        <v>199.5908670375232</v>
+        <v>59.75181271456276</v>
       </c>
       <c r="F28" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G28" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H28" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I28" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J28" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K28" t="n">
         <v>153.7488491352227</v>
@@ -6417,19 +6417,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U28" t="n">
-        <v>763.4834245766374</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V28" t="n">
-        <v>508.7989363707505</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W28" t="n">
-        <v>219.3817663337899</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="X28" t="n">
-        <v>219.3817663337899</v>
+        <v>280.5443918580929</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.3817663337899</v>
+        <v>59.75181271456276</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1328.626009176458</v>
+        <v>1858.306804940709</v>
       </c>
       <c r="C29" t="n">
-        <v>959.6634922360461</v>
+        <v>1624.828557297788</v>
       </c>
       <c r="D29" t="n">
-        <v>959.6634922360461</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E29" t="n">
-        <v>573.8752396378018</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F29" t="n">
-        <v>162.8893348481942</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G29" t="n">
-        <v>162.8893348481942</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H29" t="n">
-        <v>162.8893348481942</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I29" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J29" t="n">
         <v>73.93516953299616</v>
@@ -6478,10 +6478,10 @@
         <v>1968.337061396946</v>
       </c>
       <c r="O29" t="n">
-        <v>2138.506086713905</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P29" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q29" t="n">
         <v>2635.045976980643</v>
@@ -6490,25 +6490,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S29" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U29" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V29" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="W29" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="X29" t="n">
-        <v>2105.365181216391</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="Y29" t="n">
-        <v>1715.225849240579</v>
+        <v>2244.906645004831</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C30" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D30" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E30" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F30" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G30" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H30" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I30" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J30" t="n">
-        <v>171.3601713965085</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K30" t="n">
-        <v>500.7885757023184</v>
+        <v>238.9679910598653</v>
       </c>
       <c r="L30" t="n">
-        <v>1005.150115568437</v>
+        <v>376.1975890755593</v>
       </c>
       <c r="M30" t="n">
-        <v>1232.272002033951</v>
+        <v>1016.742938542664</v>
       </c>
       <c r="N30" t="n">
-        <v>1430.928743686616</v>
+        <v>1668.916817845373</v>
       </c>
       <c r="O30" t="n">
-        <v>1980.364752439339</v>
+        <v>2218.352826598096</v>
       </c>
       <c r="P30" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q30" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R30" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S30" t="n">
         <v>2464.467288245464</v>
@@ -6575,19 +6575,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U30" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V30" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W30" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X30" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y30" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>687.2505343823825</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C31" t="n">
-        <v>518.3143514544756</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D31" t="n">
-        <v>368.1977120421399</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E31" t="n">
-        <v>368.1977120421399</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F31" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K31" t="n">
         <v>153.7488491352227</v>
@@ -6651,22 +6651,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T31" t="n">
-        <v>1052.635600998958</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U31" t="n">
-        <v>1052.635600998958</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V31" t="n">
-        <v>1052.635600998958</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="W31" t="n">
-        <v>1052.635600998958</v>
+        <v>248.4370578520418</v>
       </c>
       <c r="X31" t="n">
-        <v>824.6460501009403</v>
+        <v>248.4370578520418</v>
       </c>
       <c r="Y31" t="n">
-        <v>687.2505343823825</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1582.805169448592</v>
+        <v>1527.243917597138</v>
       </c>
       <c r="C32" t="n">
-        <v>1213.84265250818</v>
+        <v>1527.243917597138</v>
       </c>
       <c r="D32" t="n">
-        <v>855.5769539014296</v>
+        <v>1168.978218990388</v>
       </c>
       <c r="E32" t="n">
-        <v>469.7887013031854</v>
+        <v>783.1899663921436</v>
       </c>
       <c r="F32" t="n">
         <v>469.7887013031854</v>
@@ -6700,25 +6700,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J32" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K32" t="n">
-        <v>225.231470968264</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L32" t="n">
-        <v>364.5601268095172</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M32" t="n">
-        <v>996.277937792829</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N32" t="n">
-        <v>1623.585605852676</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O32" t="n">
-        <v>2170.746810619753</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P32" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q32" t="n">
         <v>2635.045976980643</v>
@@ -6727,25 +6727,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S32" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U32" t="n">
-        <v>2266.636712062277</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V32" t="n">
-        <v>1935.573824718706</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W32" t="n">
-        <v>1582.805169448592</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="X32" t="n">
-        <v>1582.805169448592</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="Y32" t="n">
-        <v>1582.805169448592</v>
+        <v>1913.84375766126</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J33" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K33" t="n">
-        <v>382.1293238454227</v>
+        <v>339.049812088183</v>
       </c>
       <c r="L33" t="n">
-        <v>886.4908637115414</v>
+        <v>843.4113519543016</v>
       </c>
       <c r="M33" t="n">
-        <v>1527.036213178646</v>
+        <v>1483.956701421406</v>
       </c>
       <c r="N33" t="n">
-        <v>1820.852439770578</v>
+        <v>2136.130580724115</v>
       </c>
       <c r="O33" t="n">
-        <v>1980.364752439338</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P33" t="n">
         <v>2404.332520920175</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>369.5501960499129</v>
+        <v>650.1945570251878</v>
       </c>
       <c r="C34" t="n">
-        <v>200.614013122006</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D34" t="n">
-        <v>200.614013122006</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E34" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F34" t="n">
         <v>52.70091953961285</v>
@@ -6894,16 +6894,16 @@
         <v>1052.635600998958</v>
       </c>
       <c r="V34" t="n">
-        <v>999.9807909217001</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W34" t="n">
-        <v>999.9807909217001</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X34" t="n">
-        <v>771.9912400236827</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="Y34" t="n">
-        <v>551.1986608801526</v>
+        <v>831.8430218554275</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>941.6454935358602</v>
+        <v>838.7512182435971</v>
       </c>
       <c r="C35" t="n">
-        <v>941.6454935358602</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="D35" t="n">
-        <v>583.3797949291096</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="E35" t="n">
-        <v>583.3797949291096</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F35" t="n">
-        <v>172.393890139502</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G35" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H35" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I35" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J35" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K35" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L35" t="n">
-        <v>709.3115823537878</v>
+        <v>917.967405303884</v>
       </c>
       <c r="M35" t="n">
-        <v>1341.029393337099</v>
+        <v>1104.666818129292</v>
       </c>
       <c r="N35" t="n">
-        <v>1968.337061396946</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O35" t="n">
-        <v>2489.327531709521</v>
+        <v>2279.135690956216</v>
       </c>
       <c r="P35" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q35" t="n">
         <v>2635.045976980643</v>
@@ -6964,25 +6964,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S35" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T35" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U35" t="n">
-        <v>2010.339374490333</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V35" t="n">
-        <v>2010.339374490333</v>
+        <v>2341.724803814725</v>
       </c>
       <c r="W35" t="n">
-        <v>2010.339374490333</v>
+        <v>1988.95614854461</v>
       </c>
       <c r="X35" t="n">
-        <v>1636.873616229253</v>
+        <v>1615.490390283531</v>
       </c>
       <c r="Y35" t="n">
-        <v>1246.734284253441</v>
+        <v>1225.351058307719</v>
       </c>
     </row>
     <row r="36">
@@ -7007,40 +7007,40 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G36" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H36" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I36" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J36" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K36" t="n">
-        <v>295.3416275592179</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L36" t="n">
-        <v>799.7031674253365</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M36" t="n">
-        <v>1440.248516892441</v>
+        <v>1645.695465035541</v>
       </c>
       <c r="N36" t="n">
-        <v>1638.905258545106</v>
+        <v>2136.130580724116</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.341267297829</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P36" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q36" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R36" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S36" t="n">
         <v>2464.467288245464</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.70091953961285</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="C37" t="n">
-        <v>52.70091953961285</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="D37" t="n">
-        <v>52.70091953961285</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="E37" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F37" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K37" t="n">
         <v>153.7488491352227</v>
@@ -7128,19 +7128,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U37" t="n">
-        <v>1052.635600998958</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V37" t="n">
-        <v>797.9511127930708</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="W37" t="n">
-        <v>508.5339427561102</v>
+        <v>474.0662545396768</v>
       </c>
       <c r="X37" t="n">
-        <v>280.5443918580929</v>
+        <v>474.0662545396768</v>
       </c>
       <c r="Y37" t="n">
-        <v>234.3493843698525</v>
+        <v>369.2208581266226</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1503.937016903239</v>
+        <v>1239.040304699543</v>
       </c>
       <c r="C38" t="n">
-        <v>1134.974499962827</v>
+        <v>1239.040304699543</v>
       </c>
       <c r="D38" t="n">
-        <v>1134.974499962827</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E38" t="n">
         <v>880.774606092793</v>
@@ -7174,25 +7174,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J38" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K38" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L38" t="n">
-        <v>709.3115823537878</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M38" t="n">
-        <v>1341.029393337099</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N38" t="n">
-        <v>1968.337061396946</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O38" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P38" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q38" t="n">
         <v>2635.045976980643</v>
@@ -7204,22 +7204,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U38" t="n">
-        <v>2225.139236222622</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V38" t="n">
-        <v>1894.076348879051</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="W38" t="n">
-        <v>1894.076348879051</v>
+        <v>2002.645394936435</v>
       </c>
       <c r="X38" t="n">
-        <v>1894.076348879051</v>
+        <v>1629.179636675355</v>
       </c>
       <c r="Y38" t="n">
-        <v>1503.937016903239</v>
+        <v>1239.040304699543</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C39" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D39" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E39" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F39" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G39" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H39" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I39" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J39" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="K39" t="n">
-        <v>382.1293238454227</v>
+        <v>382.1293238454225</v>
       </c>
       <c r="L39" t="n">
-        <v>886.4908637115414</v>
+        <v>886.4908637115411</v>
       </c>
       <c r="M39" t="n">
-        <v>1527.036213178646</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N39" t="n">
-        <v>1725.692954831311</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O39" t="n">
-        <v>2275.128963584034</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q39" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R39" t="n">
         <v>2613.934077382829</v>
@@ -7286,19 +7286,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U39" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V39" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W39" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X39" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y39" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>497.620600032252</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="C40" t="n">
-        <v>497.620600032252</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="D40" t="n">
-        <v>347.5039606199163</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="E40" t="n">
-        <v>199.5908670375232</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="F40" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G40" t="n">
         <v>52.70091953961285</v>
@@ -7365,19 +7365,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U40" t="n">
-        <v>1052.635600998958</v>
+        <v>878.4074612226307</v>
       </c>
       <c r="V40" t="n">
-        <v>1052.635600998958</v>
+        <v>878.4074612226307</v>
       </c>
       <c r="W40" t="n">
-        <v>1052.635600998958</v>
+        <v>588.99029118567</v>
       </c>
       <c r="X40" t="n">
-        <v>900.0616440060219</v>
+        <v>588.99029118567</v>
       </c>
       <c r="Y40" t="n">
-        <v>679.2690648624917</v>
+        <v>368.1977120421399</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1755.218346231338</v>
+        <v>828.0543999099359</v>
       </c>
       <c r="C41" t="n">
-        <v>1386.255829290926</v>
+        <v>828.0543999099359</v>
       </c>
       <c r="D41" t="n">
-        <v>1386.255829290926</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="E41" t="n">
-        <v>1000.467576692682</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F41" t="n">
-        <v>589.4816719030746</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G41" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H41" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I41" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J41" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K41" t="n">
-        <v>460.0580283728629</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L41" t="n">
-        <v>599.386684214116</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M41" t="n">
-        <v>786.0860970395237</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N41" t="n">
         <v>1413.39376509937</v>
       </c>
       <c r="O41" t="n">
-        <v>1960.554969866448</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P41" t="n">
         <v>2389.870016205742</v>
@@ -7438,25 +7438,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S41" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T41" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U41" t="n">
-        <v>2481.452759762532</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V41" t="n">
-        <v>2481.452759762532</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W41" t="n">
-        <v>2128.684104492418</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="X41" t="n">
-        <v>1755.218346231338</v>
+        <v>1305.810728885682</v>
       </c>
       <c r="Y41" t="n">
-        <v>1755.218346231338</v>
+        <v>1214.654239974058</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>966.1226039662192</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C42" t="n">
-        <v>791.6695746850922</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D42" t="n">
-        <v>642.735165023841</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E42" t="n">
-        <v>483.4977100183855</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F42" t="n">
-        <v>336.9631520452705</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G42" t="n">
-        <v>199.5217544044924</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H42" t="n">
-        <v>98.605776549297</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I42" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J42" t="n">
         <v>171.3601713965085</v>
@@ -7499,13 +7499,13 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M42" t="n">
-        <v>1232.272002033951</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N42" t="n">
-        <v>1430.928743686616</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O42" t="n">
-        <v>1980.364752439339</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P42" t="n">
         <v>2404.332520920175</v>
@@ -7514,10 +7514,10 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R42" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.467288245465</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T42" t="n">
         <v>2267.477992405552</v>
@@ -7526,7 +7526,7 @@
         <v>2039.339204916718</v>
       </c>
       <c r="V42" t="n">
-        <v>1804.187096684976</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W42" t="n">
         <v>1549.949739956774</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>221.6371024675198</v>
+        <v>196.5758094395354</v>
       </c>
       <c r="C43" t="n">
-        <v>52.70091953961286</v>
+        <v>196.5758094395354</v>
       </c>
       <c r="D43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K43" t="n">
         <v>153.7488491352227</v>
@@ -7599,22 +7599,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T43" t="n">
-        <v>920.427294618097</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U43" t="n">
-        <v>631.2751181957768</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V43" t="n">
-        <v>631.2751181957768</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="W43" t="n">
-        <v>631.2751181957768</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="X43" t="n">
-        <v>403.2855672977595</v>
+        <v>599.0168534133053</v>
       </c>
       <c r="Y43" t="n">
-        <v>403.2855672977595</v>
+        <v>378.2242742697752</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1676.825628121143</v>
+        <v>1151.168361633125</v>
       </c>
       <c r="C44" t="n">
-        <v>1307.863111180732</v>
+        <v>782.2058446927138</v>
       </c>
       <c r="D44" t="n">
-        <v>949.5974125739813</v>
+        <v>423.9401460859632</v>
       </c>
       <c r="E44" t="n">
-        <v>563.809159975737</v>
+        <v>423.9401460859632</v>
       </c>
       <c r="F44" t="n">
-        <v>152.8232551861294</v>
+        <v>423.9401460859632</v>
       </c>
       <c r="G44" t="n">
         <v>52.70091953961286</v>
@@ -7651,22 +7651,22 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K44" t="n">
-        <v>156.4983241075885</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L44" t="n">
-        <v>709.3115823537878</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M44" t="n">
-        <v>1341.029393337099</v>
+        <v>1219.059552207388</v>
       </c>
       <c r="N44" t="n">
-        <v>1968.337061396946</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O44" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P44" t="n">
-        <v>2600.061856959048</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q44" t="n">
         <v>2635.045976980643</v>
@@ -7675,25 +7675,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S44" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U44" t="n">
-        <v>2381.354273725794</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V44" t="n">
-        <v>2050.291386382223</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W44" t="n">
-        <v>2050.291386382223</v>
+        <v>1541.307693608937</v>
       </c>
       <c r="X44" t="n">
-        <v>1676.825628121143</v>
+        <v>1541.307693608937</v>
       </c>
       <c r="Y44" t="n">
-        <v>1676.825628121143</v>
+        <v>1151.168361633125</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J45" t="n">
-        <v>52.70091953961286</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K45" t="n">
-        <v>295.3416275592184</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L45" t="n">
-        <v>799.7031674253369</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M45" t="n">
-        <v>1440.248516892442</v>
+        <v>1232.272002033951</v>
       </c>
       <c r="N45" t="n">
-        <v>1638.905258545106</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P45" t="n">
-        <v>2612.309035778666</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q45" t="n">
         <v>2635.045976980643</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>519.6668354622486</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="C46" t="n">
-        <v>350.7306525343417</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D46" t="n">
-        <v>200.614013122006</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E46" t="n">
         <v>52.70091953961286</v>
@@ -7836,22 +7836,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T46" t="n">
-        <v>1052.635600998958</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U46" t="n">
-        <v>1052.635600998958</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V46" t="n">
-        <v>1052.635600998958</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="W46" t="n">
-        <v>1052.635600998958</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="X46" t="n">
-        <v>922.1078794360185</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="Y46" t="n">
-        <v>701.3153002924884</v>
+        <v>283.1697396831156</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M3" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P6" t="n">
-        <v>303.8835549304717</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>312.0431814381598</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>182.3308283893217</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,19 +8695,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>354.365095955167</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>60.49244923701499</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8774,22 +8774,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>176.8008973295436</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>127.2770751262505</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8932,22 +8932,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>354.365095955167</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>60.49244923701507</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9008,25 +9008,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>93.961829773039</v>
       </c>
       <c r="P15" t="n">
-        <v>230.7984289569017</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>33.31524535321148</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>230.7984289569017</v>
+        <v>207.4678568043326</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="O20" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9482,16 +9482,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>176.8008973295436</v>
+        <v>167.9634363311155</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9646,19 +9646,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>154.8683541940948</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>30.21968338400228</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9719,7 +9719,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>37.16554713105198</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,13 +9728,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>176.8008973295436</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>354.3650959551675</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>176.8008973295439</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,13 +9965,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>46.70479923672238</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P29" t="n">
-        <v>142.0501052952627</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>48.10560617263553</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>78.07077454018153</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>69.4274210713894</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>101.092748513452</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,13 +10439,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>96.12069185784534</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>135.1826443325618</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>176.8008973295434</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>294.7256303393025</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="O38" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>167.9634363311152</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>230.7984289569017</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>306.6259639043175</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11147,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>48.10560617263553</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11299,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>2.166261194686228</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>354.3650959551675</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>176.8008973295439</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263553</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>169.6449844288197</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>347.366321224429</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22637,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22676,19 +22676,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>161.2931112631971</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22746,28 +22746,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>285.5285789088086</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>320.3600505003333</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,13 +22865,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>118.7734630237764</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22880,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>108.4014864680378</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22989,13 +22989,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23004,13 +23004,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>217.7942029044125</v>
       </c>
     </row>
     <row r="8">
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>315.8114241890584</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>301.8181508768923</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23108,7 +23108,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23120,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>50.52501541979053</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,19 +23153,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>171.1123110561968</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23190,10 +23190,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>144.630597575249</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>110.1875138477053</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>59.95550615191328</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938903</v>
+        <v>6.036212338849595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>81.17970188326818</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>96.85978817420428</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.22515631916403</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.9207765545704</v>
@@ -23475,10 +23475,10 @@
         <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>10.80045052951317</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>31.43762041328873</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>289.1882335675286</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,16 +23503,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>157.8315260226345</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
         <v>118.4960408938903</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>72.66688054683263</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>120.6311761415668</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>33.35650432154151</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,10 +23624,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23636,13 +23636,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>57.01706514741289</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
         <v>123.266557879417</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>124.9191509142311</v>
       </c>
       <c r="S16" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>31.17527673479472</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>31.43762041328873</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>278.680039865674</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>315.0408840752156</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>33.3085463127494</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>31.24378655673286</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
         <v>123.266557879417</v>
@@ -23943,13 +23943,13 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>234.132392681612</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>329.318765637662</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>315.0408840752156</v>
@@ -24022,13 +24022,13 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>318.550097272094</v>
       </c>
     </row>
     <row r="21">
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.9207765545704</v>
@@ -24180,22 +24180,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>31.93087845973247</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>61.34648140890602</v>
       </c>
     </row>
     <row r="23">
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>313.2884167734139</v>
       </c>
       <c r="H23" t="n">
-        <v>81.48452807403649</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I23" t="n">
         <v>118.4960408938903</v>
@@ -24259,7 +24259,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.1547862223006</v>
@@ -24268,10 +24268,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>57.72973419665556</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24417,10 +24417,10 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T25" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>250.5155318118273</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>308.1922840273375</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H26" t="n">
         <v>315.0408840752156</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>93.04061886385873</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>126.8409723432651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>138.4406637797308</v>
       </c>
       <c r="G28" t="n">
         <v>166.9207765545704</v>
@@ -24657,7 +24657,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>134.1294266045154</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
-        <v>9.409509738394775</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T29" t="n">
         <v>212.651863114966</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H31" t="n">
         <v>152.7120966692326</v>
@@ -24891,22 +24891,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T31" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.56309279072255</v>
+        <v>24.80587642279011</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>96.60879330364287</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
-        <v>41.08250108125875</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>16.1986036756214</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.9207765545704</v>
@@ -25134,13 +25134,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
-        <v>200.009381347343</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.69593885307529</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>250.0161601508414</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>152.7120966692326</v>
@@ -25368,19 +25368,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>172.8515959387369</v>
+        <v>114.7877109031712</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>130.2724751409277</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>341.6239289590541</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>152.7120966692326</v>
@@ -25605,16 +25605,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
-        <v>286.260654658097</v>
+        <v>113.7747962795333</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>74.66143796603072</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>99.09750117637117</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>295.9930146335453</v>
       </c>
     </row>
     <row r="42">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>6.179332017288971</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25839,10 +25839,10 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T43" t="n">
-        <v>92.48668140370663</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>313.7957916558854</v>
+        <v>45.39006966504991</v>
       </c>
       <c r="H44" t="n">
         <v>315.0408840752156</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>212.651863114966</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>100.283321258082</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26076,22 +26076,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T46" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>96.48721104172736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498839.2872644283</v>
+        <v>358732.3883940966</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498839.2872644283</v>
+        <v>358732.3883940965</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498839.2872644283</v>
+        <v>358732.3883940965</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>836519.6495866909</v>
+        <v>549252.2745108757</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>836519.6495866912</v>
+        <v>549252.2745108758</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>836519.6495866911</v>
+        <v>836519.6495866912</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>836519.6495866909</v>
+        <v>836519.6495866911</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>836519.6495866911</v>
+        <v>836519.6495866909</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>836519.6495866911</v>
+        <v>836519.6495866912</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>836519.6495866911</v>
+        <v>836519.6495866912</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>836519.6495866912</v>
+        <v>836519.6495866911</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132928.5380250659</v>
+        <v>95642.40428095896</v>
       </c>
       <c r="C2" t="n">
-        <v>132928.5380250659</v>
+        <v>95642.40428095896</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.5380250659</v>
+        <v>95642.40428095897</v>
       </c>
       <c r="E2" t="n">
-        <v>237303.5238233911</v>
+        <v>160854.113738964</v>
       </c>
       <c r="F2" t="n">
-        <v>237303.5238233911</v>
+        <v>160854.113738964</v>
       </c>
       <c r="G2" t="n">
-        <v>237303.5238233911</v>
+        <v>237303.5238233912</v>
       </c>
       <c r="H2" t="n">
         <v>237303.5238233911</v>
@@ -26337,13 +26337,13 @@
         <v>237303.5238233911</v>
       </c>
       <c r="J2" t="n">
-        <v>237303.5238233912</v>
+        <v>237303.5238233911</v>
       </c>
       <c r="K2" t="n">
-        <v>237303.5238233912</v>
+        <v>237303.5238233911</v>
       </c>
       <c r="L2" t="n">
-        <v>237303.5238233912</v>
+        <v>237303.5238233911</v>
       </c>
       <c r="M2" t="n">
         <v>237303.5238233911</v>
@@ -26352,7 +26352,7 @@
         <v>237303.5238233912</v>
       </c>
       <c r="O2" t="n">
-        <v>237303.5238233911</v>
+        <v>237303.5238233912</v>
       </c>
       <c r="P2" t="n">
         <v>237303.5238233911</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>601530.6045241205</v>
+        <v>539786.465644841</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>110641.5683420766</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>11546.91810999088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104104.2745664029</v>
+        <v>52570.38263440537</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>97145.06106897154</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50385.00392753458</v>
+        <v>35976.14446872375</v>
       </c>
       <c r="C4" t="n">
-        <v>50385.00392753458</v>
+        <v>35976.14446872375</v>
       </c>
       <c r="D4" t="n">
-        <v>50385.00392753457</v>
+        <v>35976.14446872375</v>
       </c>
       <c r="E4" t="n">
+        <v>6590.838313831421</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6590.838313831422</v>
+      </c>
+      <c r="G4" t="n">
         <v>36133.96051511372</v>
-      </c>
-      <c r="F4" t="n">
-        <v>36133.96051511371</v>
-      </c>
-      <c r="G4" t="n">
-        <v>36133.96051511371</v>
       </c>
       <c r="H4" t="n">
         <v>36133.96051511372</v>
       </c>
       <c r="I4" t="n">
+        <v>36133.96051511371</v>
+      </c>
+      <c r="J4" t="n">
         <v>36133.96051511372</v>
       </c>
-      <c r="J4" t="n">
-        <v>36133.96051511373</v>
-      </c>
       <c r="K4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="L4" t="n">
         <v>36133.96051511372</v>
       </c>
       <c r="M4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="N4" t="n">
         <v>36133.96051511371</v>
       </c>
       <c r="O4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="P4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511372</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>52990.47783747558</v>
+        <v>28446.9699651066</v>
       </c>
       <c r="F5" t="n">
-        <v>52990.47783747558</v>
+        <v>28446.9699651066</v>
       </c>
       <c r="G5" t="n">
         <v>52990.47783747558</v>
@@ -26493,22 +26493,22 @@
         <v>52990.47783747558</v>
       </c>
       <c r="J5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="K5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="L5" t="n">
         <v>52990.47783747558</v>
       </c>
       <c r="M5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="N5" t="n">
         <v>52990.47783747558</v>
       </c>
       <c r="O5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="P5" t="n">
         <v>52990.47783747559</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58725.17681781853</v>
+        <v>7110.878329429182</v>
       </c>
       <c r="C6" t="n">
-        <v>22044.25471372919</v>
+        <v>21900.5843336734</v>
       </c>
       <c r="D6" t="n">
-        <v>22044.25471372918</v>
+        <v>21900.58433367341</v>
       </c>
       <c r="E6" t="n">
-        <v>-459046.0930609638</v>
+        <v>-415017.4263986071</v>
       </c>
       <c r="F6" t="n">
-        <v>142484.5114631567</v>
+        <v>124769.0392462337</v>
       </c>
       <c r="G6" t="n">
-        <v>142484.5114631567</v>
+        <v>36968.05972796078</v>
       </c>
       <c r="H6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="I6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="J6" t="n">
-        <v>79424.56886405044</v>
+        <v>136062.7099600464</v>
       </c>
       <c r="K6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="L6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700372</v>
       </c>
       <c r="M6" t="n">
-        <v>38380.23689675381</v>
+        <v>95039.24543563189</v>
       </c>
       <c r="N6" t="n">
-        <v>142484.5114631567</v>
+        <v>147609.6280700373</v>
       </c>
       <c r="O6" t="n">
-        <v>142484.5114631567</v>
+        <v>50464.56700106578</v>
       </c>
       <c r="P6" t="n">
-        <v>142484.5114631566</v>
+        <v>147609.6280700373</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>658.7614942451606</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="F4" t="n">
-        <v>658.7614942451606</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="G4" t="n">
         <v>658.7614942451606</v>
@@ -26813,22 +26813,22 @@
         <v>658.7614942451606</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="L4" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="M4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="N4" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="O4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="P4" t="n">
         <v>658.7614942451607</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>417.7472053675016</v>
+        <v>210.9532055440737</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>403.6761163218583</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>44.13217237922856</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675016</v>
+        <v>210.9532055440738</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>403.6761163218583</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675016</v>
+        <v>210.9532055440737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>403.6761163218583</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -33766,7 +33766,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T36" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U36" t="n">
         <v>0.08398246702897151</v>
@@ -34003,7 +34003,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T39" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U39" t="n">
         <v>0.08398246702897151</v>
@@ -34240,7 +34240,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T42" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U42" t="n">
         <v>0.08398246702897151</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M3" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P6" t="n">
-        <v>169.9091475161414</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,19 +35415,19 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O11" t="n">
-        <v>526.2530003157322</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P11" t="n">
-        <v>111.8528537874005</v>
+        <v>172.3453030244155</v>
       </c>
       <c r="Q11" t="n">
         <v>35.33749497130819</v>
@@ -35494,22 +35494,22 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N12" t="n">
-        <v>377.4642727362756</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.96660727472423</v>
+        <v>150.2436824009747</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O14" t="n">
-        <v>526.2530003157322</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P14" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.33749497130819</v>
+        <v>95.82994420832325</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N15" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269929</v>
+        <v>255.0853779233023</v>
       </c>
       <c r="P15" t="n">
-        <v>340.5859315097288</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472423</v>
+        <v>56.28185262793571</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K18" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M18" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N18" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P18" t="n">
-        <v>340.5859315097288</v>
+        <v>317.2553593571597</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K20" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513602</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O20" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P20" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N21" t="n">
-        <v>377.4642727362756</v>
+        <v>368.6268117378475</v>
       </c>
       <c r="O21" t="n">
         <v>554.9858674269929</v>
@@ -36220,7 +36220,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K23" t="n">
         <v>407.5425384040863</v>
@@ -36366,19 +36366,19 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M23" t="n">
-        <v>638.0987989730422</v>
+        <v>343.4536196743045</v>
       </c>
       <c r="N23" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O23" t="n">
-        <v>202.1075877445674</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P23" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q23" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>68.29072693268387</v>
+        <v>105.4562740637358</v>
       </c>
       <c r="L24" t="n">
         <v>509.4561008748672</v>
@@ -36448,13 +36448,13 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N24" t="n">
-        <v>377.4642727362756</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O24" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P24" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q24" t="n">
         <v>22.96660727472423</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K26" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L26" t="n">
-        <v>558.3972305517163</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M26" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N26" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O26" t="n">
-        <v>526.2530003157326</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P26" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q26" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K27" t="n">
-        <v>245.0916242622278</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L27" t="n">
         <v>509.4561008748672</v>
@@ -36685,13 +36685,13 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N27" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O27" t="n">
-        <v>554.9858674269929</v>
+        <v>207.8283473869857</v>
       </c>
       <c r="P27" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q27" t="n">
         <v>22.96660727472423</v>
@@ -36846,13 +36846,13 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O29" t="n">
-        <v>171.8879043605652</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P29" t="n">
-        <v>253.9029590826633</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q29" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K30" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L30" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M30" t="n">
-        <v>229.4160469348626</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N30" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O30" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P30" t="n">
-        <v>428.2502711927643</v>
+        <v>187.8582770930086</v>
       </c>
       <c r="Q30" t="n">
         <v>233.0438950105733</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K32" t="n">
-        <v>152.824546904311</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L32" t="n">
         <v>140.7360160012659</v>
       </c>
       <c r="M32" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N32" t="n">
-        <v>633.6441091513602</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O32" t="n">
         <v>552.6880856233105</v>
@@ -37089,7 +37089,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q32" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K33" t="n">
-        <v>332.7559639452625</v>
+        <v>169.3834754461359</v>
       </c>
       <c r="L33" t="n">
         <v>509.4561008748672</v>
@@ -37159,13 +37159,13 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N33" t="n">
-        <v>296.7840672645773</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O33" t="n">
         <v>161.1235481502633</v>
       </c>
       <c r="P33" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q33" t="n">
         <v>233.0438950105733</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K35" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L35" t="n">
-        <v>558.3972305517163</v>
+        <v>275.9186603338276</v>
       </c>
       <c r="M35" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N35" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O35" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P35" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q35" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K36" t="n">
-        <v>245.0916242622273</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L36" t="n">
         <v>509.4561008748672</v>
@@ -37396,16 +37396,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N36" t="n">
-        <v>200.663375406732</v>
+        <v>495.3890057460345</v>
       </c>
       <c r="O36" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P36" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K38" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L38" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M38" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N38" t="n">
-        <v>633.6441091513602</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O38" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P38" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q38" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M39" t="n">
-        <v>647.0155045122269</v>
+        <v>349.2738770933423</v>
       </c>
       <c r="N39" t="n">
         <v>200.663375406732</v>
@@ -37639,10 +37639,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P39" t="n">
-        <v>340.5859315097288</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K41" t="n">
-        <v>390.0230897372391</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L41" t="n">
-        <v>140.7360160012659</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M41" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N41" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O41" t="n">
         <v>552.6880856233105</v>
@@ -37867,7 +37867,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>229.4160469348626</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N42" t="n">
         <v>200.663375406732</v>
@@ -38019,25 +38019,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K44" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L44" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M44" t="n">
-        <v>638.0987989730422</v>
+        <v>190.751526674896</v>
       </c>
       <c r="N44" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O44" t="n">
-        <v>526.2530003157326</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P44" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q44" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K45" t="n">
-        <v>245.0916242622278</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L45" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348626</v>
       </c>
       <c r="N45" t="n">
         <v>200.663375406732</v>
@@ -38116,7 +38116,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
